--- a/2013-2018 Student Data (Termination and Withdrawal of Scholarship) 3.xlsx
+++ b/2013-2018 Student Data (Termination and Withdrawal of Scholarship) 3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/firstnamelastname/Documents/pshs_oed/termination_records/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{FC98EF88-B8A3-994E-A41A-3F29F4D2A378}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B471F57-205F-9F4B-81ED-12F262C370D1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="28800" xr2:uid="{7C2DE3A2-FF6A-5D41-828E-34D00FE7DD02}"/>
+    <workbookView xWindow="20380" yWindow="840" windowWidth="51200" windowHeight="26740" xr2:uid="{7C2DE3A2-FF6A-5D41-828E-34D00FE7DD02}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1887" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2224" uniqueCount="331">
   <si>
     <t>Year</t>
   </si>
@@ -1039,12 +1039,72 @@
   <si>
     <t>Attendance</t>
   </si>
+  <si>
+    <t>5.00 in Mathematics</t>
+  </si>
+  <si>
+    <t>5.00 in Research</t>
+  </si>
+  <si>
+    <t>5.00 in Physics</t>
+  </si>
+  <si>
+    <t>2 Level III Offense in 1 SY</t>
+  </si>
+  <si>
+    <t>Double Probation</t>
+  </si>
+  <si>
+    <t>More than 12 unexcused absences</t>
+  </si>
+  <si>
+    <t>5.00 in Research; Double Probation</t>
+  </si>
+  <si>
+    <t>5.00 in Chemistry, Physics, Math, Filipino, &amp; Soc Science</t>
+  </si>
+  <si>
+    <t>5.00 in Chemistry; Double probation</t>
+  </si>
+  <si>
+    <t>5.00 in Social Science</t>
+  </si>
+  <si>
+    <t>Health Reason</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Personal </t>
+  </si>
+  <si>
+    <t>study abroad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Migration </t>
+  </si>
+  <si>
+    <t>Homesickness</t>
+  </si>
+  <si>
+    <t>Adjustment</t>
+  </si>
+  <si>
+    <t>Transfer to College</t>
+  </si>
+  <si>
+    <t>Discipline case</t>
+  </si>
+  <si>
+    <t>Transfer to another school</t>
+  </si>
+  <si>
+    <t>Personal</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1074,6 +1134,10 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1157,7 +1221,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1176,12 +1240,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1210,12 +1268,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1235,12 +1287,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1258,6 +1304,37 @@
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1573,11 +1650,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF476226-2AE1-3F4A-8BAE-61286F809EF5}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:J265"/>
+  <dimension ref="A1:J329"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B198" sqref="B198"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B297" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="E330" sqref="E330"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1614,7 +1693,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="42" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" ht="42" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>2013</v>
       </c>
@@ -1640,11 +1719,11 @@
       <c r="I2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="26" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="56" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J2" s="22" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="56" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>2013</v>
       </c>
@@ -1670,11 +1749,11 @@
         <v>14</v>
       </c>
       <c r="I3" s="4"/>
-      <c r="J3" s="26" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="84" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J3" s="22" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="84" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2013</v>
       </c>
@@ -1700,11 +1779,11 @@
         <v>14</v>
       </c>
       <c r="I4" s="1"/>
-      <c r="J4" s="26" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="70" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J4" s="22" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="70" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>2013</v>
       </c>
@@ -1730,11 +1809,11 @@
       <c r="I5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J5" s="26" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="98" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J5" s="22" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="98" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>2013</v>
       </c>
@@ -1760,18 +1839,18 @@
       <c r="I6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J6" s="26" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="28" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="9">
+      <c r="J6" s="22" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="28" x14ac:dyDescent="0.2">
+      <c r="A7" s="7">
         <v>2013</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="9" t="s">
         <v>28</v>
       </c>
       <c r="D7" s="1" t="s">
@@ -1790,14 +1869,14 @@
         <v>14</v>
       </c>
       <c r="I7" s="1"/>
-      <c r="J7" s="26" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="42" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="9"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="12"/>
+      <c r="J7" s="22" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="42" x14ac:dyDescent="0.2">
+      <c r="A8" s="7"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="10"/>
       <c r="D8" s="1" t="s">
         <v>20</v>
       </c>
@@ -1814,11 +1893,11 @@
       <c r="I8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J8" s="26" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="112" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J8" s="22" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="112" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>2014</v>
       </c>
@@ -1844,11 +1923,11 @@
       <c r="I9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J9" s="26" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="182" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J9" s="22" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="182" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>2014</v>
       </c>
@@ -1864,28 +1943,28 @@
       <c r="E10" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F10" s="13" t="s">
+      <c r="F10" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="G10" s="13" t="s">
+      <c r="G10" s="11" t="s">
         <v>304</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>14</v>
       </c>
       <c r="I10" s="1"/>
-      <c r="J10" s="26" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="98" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="9">
+      <c r="J10" s="22" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="98" x14ac:dyDescent="0.2">
+      <c r="A11" s="7">
         <v>2014</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="7" t="s">
         <v>37</v>
       </c>
       <c r="D11" s="1" t="s">
@@ -1904,14 +1983,14 @@
       <c r="I11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J11" s="26" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="98" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="9"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="9"/>
+      <c r="J11" s="22" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="98" x14ac:dyDescent="0.2">
+      <c r="A12" s="7"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="7"/>
       <c r="D12" s="1" t="s">
         <v>11</v>
       </c>
@@ -1928,14 +2007,14 @@
         <v>14</v>
       </c>
       <c r="I12" s="1"/>
-      <c r="J12" s="26" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="154" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="9"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="9"/>
+      <c r="J12" s="22" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="154" x14ac:dyDescent="0.2">
+      <c r="A13" s="7"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="7"/>
       <c r="D13" s="1" t="s">
         <v>20</v>
       </c>
@@ -1952,14 +2031,14 @@
         <v>14</v>
       </c>
       <c r="I13" s="1"/>
-      <c r="J13" s="26" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="112" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="9"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="9"/>
+      <c r="J13" s="22" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="112" x14ac:dyDescent="0.2">
+      <c r="A14" s="7"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="7"/>
       <c r="D14" s="1" t="s">
         <v>11</v>
       </c>
@@ -1976,14 +2055,14 @@
         <v>14</v>
       </c>
       <c r="I14" s="1"/>
-      <c r="J14" s="26" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="98" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="9"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="9"/>
+      <c r="J14" s="22" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="98" x14ac:dyDescent="0.2">
+      <c r="A15" s="7"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="7"/>
       <c r="D15" s="1" t="s">
         <v>20</v>
       </c>
@@ -2000,11 +2079,11 @@
       <c r="I15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J15" s="26" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="224" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J15" s="22" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="224" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>2014</v>
       </c>
@@ -2030,11 +2109,11 @@
         <v>14</v>
       </c>
       <c r="I16" s="1"/>
-      <c r="J16" s="26" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="42" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J16" s="22" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="42" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>2014</v>
       </c>
@@ -2057,14 +2136,14 @@
         <v>308</v>
       </c>
       <c r="H17" s="1"/>
-      <c r="I17" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="J17" s="26" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="70" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I17" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="J17" s="22" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="70" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>2014</v>
       </c>
@@ -2090,11 +2169,11 @@
       <c r="I18" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J18" s="26" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="182" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J18" s="22" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="182" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>2014</v>
       </c>
@@ -2120,18 +2199,18 @@
       <c r="I19" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J19" s="26" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="42" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="9">
+      <c r="J19" s="22" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="42" x14ac:dyDescent="0.2">
+      <c r="A20" s="7">
         <v>2015</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="7" t="s">
         <v>32</v>
       </c>
       <c r="D20" s="1" t="s">
@@ -2150,14 +2229,14 @@
       <c r="I20" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J20" s="26" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="42" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="9"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="9"/>
+      <c r="J20" s="22" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="42" x14ac:dyDescent="0.2">
+      <c r="A21" s="7"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="7"/>
       <c r="D21" s="1" t="s">
         <v>11</v>
       </c>
@@ -2174,11 +2253,11 @@
       <c r="I21" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J21" s="26" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="224" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J21" s="22" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="224" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>2015</v>
       </c>
@@ -2204,11 +2283,11 @@
       <c r="I22" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J22" s="26" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="42" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J22" s="22" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="42" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>2015</v>
       </c>
@@ -2234,11 +2313,11 @@
       <c r="I23" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J23" s="26" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="42" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J23" s="22" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="42" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>2015</v>
       </c>
@@ -2264,11 +2343,11 @@
         <v>14</v>
       </c>
       <c r="I24" s="1"/>
-      <c r="J24" s="26" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" ht="42" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J24" s="22" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="42" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>2015</v>
       </c>
@@ -2294,18 +2373,18 @@
         <v>14</v>
       </c>
       <c r="I25" s="1"/>
-      <c r="J25" s="26" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="126" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="9">
+      <c r="J25" s="22" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="126" x14ac:dyDescent="0.2">
+      <c r="A26" s="7">
         <v>2015</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="B26" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="C26" s="9" t="s">
+      <c r="C26" s="7" t="s">
         <v>56</v>
       </c>
       <c r="D26" s="1" t="s">
@@ -2314,24 +2393,24 @@
       <c r="E26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F26" s="13" t="s">
+      <c r="F26" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="G26" s="13" t="s">
+      <c r="G26" s="11" t="s">
         <v>304</v>
       </c>
       <c r="H26" s="1" t="s">
         <v>14</v>
       </c>
       <c r="I26" s="1"/>
-      <c r="J26" s="26" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" ht="378" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="9"/>
-      <c r="B27" s="10"/>
-      <c r="C27" s="9"/>
+      <c r="J26" s="22" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="378" x14ac:dyDescent="0.2">
+      <c r="A27" s="7"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="7"/>
       <c r="D27" s="1" t="s">
         <v>11</v>
       </c>
@@ -2348,14 +2427,14 @@
       <c r="I27" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J27" s="26" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" ht="42" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="9"/>
-      <c r="B28" s="10"/>
-      <c r="C28" s="9"/>
+      <c r="J27" s="22" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="42" x14ac:dyDescent="0.2">
+      <c r="A28" s="7"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="7"/>
       <c r="D28" s="1" t="s">
         <v>11</v>
       </c>
@@ -2372,11 +2451,11 @@
         <v>14</v>
       </c>
       <c r="I28" s="1"/>
-      <c r="J28" s="26" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" ht="266" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J28" s="22" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="266" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>2015</v>
       </c>
@@ -2402,18 +2481,18 @@
       <c r="I29" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J29" s="26" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" ht="409.6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="9">
+      <c r="J29" s="22" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A30" s="7">
         <v>2015</v>
       </c>
-      <c r="B30" s="10" t="s">
+      <c r="B30" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="C30" s="9" t="s">
+      <c r="C30" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D30" s="1" t="s">
@@ -2432,14 +2511,14 @@
       <c r="I30" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J30" s="26" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" ht="210" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="9"/>
-      <c r="B31" s="10"/>
-      <c r="C31" s="9"/>
+      <c r="J30" s="22" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="210" x14ac:dyDescent="0.2">
+      <c r="A31" s="7"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="7"/>
       <c r="D31" s="1" t="s">
         <v>20</v>
       </c>
@@ -2456,14 +2535,14 @@
       <c r="I31" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J31" s="26" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" ht="70" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="9"/>
-      <c r="B32" s="10"/>
-      <c r="C32" s="9"/>
+      <c r="J31" s="22" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="70" x14ac:dyDescent="0.2">
+      <c r="A32" s="7"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="7"/>
       <c r="D32" s="1" t="s">
         <v>20</v>
       </c>
@@ -2480,11 +2559,11 @@
       <c r="I32" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J32" s="26" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" ht="56" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J32" s="22" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="56" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>2015</v>
       </c>
@@ -2510,11 +2589,11 @@
       <c r="I33" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J33" s="26" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" ht="112" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J33" s="22" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="112" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>2015</v>
       </c>
@@ -2540,11 +2619,11 @@
       <c r="I34" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J34" s="26" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" ht="42" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J34" s="22" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="42" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>2015</v>
       </c>
@@ -2570,11 +2649,11 @@
       <c r="I35" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J35" s="26" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" ht="252" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J35" s="22" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="252" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>2015</v>
       </c>
@@ -2600,11 +2679,11 @@
         <v>14</v>
       </c>
       <c r="I36" s="4"/>
-      <c r="J36" s="26" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" ht="210" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J36" s="22" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="210" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>2015</v>
       </c>
@@ -2630,11 +2709,11 @@
         <v>14</v>
       </c>
       <c r="I37" s="1"/>
-      <c r="J37" s="26" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" ht="42" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J37" s="22" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="42" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>2015</v>
       </c>
@@ -2660,18 +2739,18 @@
       <c r="I38" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J38" s="26" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" ht="42" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="9">
+      <c r="J38" s="22" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="42" x14ac:dyDescent="0.2">
+      <c r="A39" s="7">
         <v>2015</v>
       </c>
-      <c r="B39" s="10" t="s">
+      <c r="B39" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="C39" s="9" t="s">
+      <c r="C39" s="7" t="s">
         <v>56</v>
       </c>
       <c r="D39" s="1" t="s">
@@ -2690,14 +2769,14 @@
       <c r="I39" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J39" s="26" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" ht="42" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="9"/>
-      <c r="B40" s="10"/>
-      <c r="C40" s="9"/>
+      <c r="J39" s="22" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="42" x14ac:dyDescent="0.2">
+      <c r="A40" s="7"/>
+      <c r="B40" s="8"/>
+      <c r="C40" s="7"/>
       <c r="D40" s="1" t="s">
         <v>11</v>
       </c>
@@ -2714,11 +2793,11 @@
         <v>14</v>
       </c>
       <c r="I40" s="1"/>
-      <c r="J40" s="26" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" ht="182" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J40" s="22" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="182" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>2016</v>
       </c>
@@ -2731,24 +2810,24 @@
       <c r="D41" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E41" s="15" t="s">
+      <c r="E41" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="F41" s="16" t="s">
+      <c r="F41" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="G41" s="16" t="s">
+      <c r="G41" s="14" t="s">
         <v>304</v>
       </c>
       <c r="H41" s="1"/>
       <c r="I41" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J41" s="26" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" ht="266" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J41" s="22" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="266" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>2016</v>
       </c>
@@ -2761,24 +2840,24 @@
       <c r="D42" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E42" s="15" t="s">
+      <c r="E42" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="F42" s="17" t="s">
+      <c r="F42" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="G42" s="17" t="s">
+      <c r="G42" s="15" t="s">
         <v>303</v>
       </c>
       <c r="H42" s="1" t="s">
         <v>14</v>
       </c>
       <c r="I42" s="1"/>
-      <c r="J42" s="26" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" ht="42" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J42" s="22" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="42" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>2016</v>
       </c>
@@ -2791,24 +2870,24 @@
       <c r="D43" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E43" s="15" t="s">
+      <c r="E43" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="F43" s="17" t="s">
+      <c r="F43" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="G43" s="17" t="s">
+      <c r="G43" s="15" t="s">
         <v>304</v>
       </c>
       <c r="H43" s="1"/>
       <c r="I43" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J43" s="26" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" ht="56" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J43" s="22" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="56" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>2016</v>
       </c>
@@ -2821,24 +2900,24 @@
       <c r="D44" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E44" s="15" t="s">
+      <c r="E44" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="F44" s="17" t="s">
+      <c r="F44" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="G44" s="17" t="s">
+      <c r="G44" s="15" t="s">
         <v>306</v>
       </c>
       <c r="H44" s="1"/>
       <c r="I44" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J44" s="26" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" ht="238" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J44" s="22" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="238" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>2016</v>
       </c>
@@ -2851,24 +2930,24 @@
       <c r="D45" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E45" s="15" t="s">
+      <c r="E45" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="F45" s="16" t="s">
+      <c r="F45" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="G45" s="16" t="s">
+      <c r="G45" s="14" t="s">
         <v>304</v>
       </c>
       <c r="H45" s="1" t="s">
         <v>14</v>
       </c>
       <c r="I45" s="1"/>
-      <c r="J45" s="26" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" ht="224" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J45" s="22" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="224" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>2016</v>
       </c>
@@ -2881,24 +2960,24 @@
       <c r="D46" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E46" s="15" t="s">
+      <c r="E46" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="F46" s="17" t="s">
+      <c r="F46" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="G46" s="17" t="s">
+      <c r="G46" s="15" t="s">
         <v>304</v>
       </c>
       <c r="H46" s="1"/>
       <c r="I46" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J46" s="26" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" ht="140" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J46" s="22" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="140" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>2016</v>
       </c>
@@ -2911,186 +2990,186 @@
       <c r="D47" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E47" s="15" t="s">
+      <c r="E47" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="F47" s="17" t="s">
+      <c r="F47" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="G47" s="17" t="s">
+      <c r="G47" s="15" t="s">
         <v>304</v>
       </c>
       <c r="H47" s="1"/>
       <c r="I47" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J47" s="26" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" ht="126" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="9">
+      <c r="J47" s="22" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="126" x14ac:dyDescent="0.2">
+      <c r="A48" s="7">
         <v>2016</v>
       </c>
-      <c r="B48" s="10" t="s">
+      <c r="B48" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="C48" s="9" t="s">
+      <c r="C48" s="7" t="s">
         <v>19</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E48" s="15" t="s">
+      <c r="E48" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="F48" s="17" t="s">
+      <c r="F48" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="G48" s="17" t="s">
+      <c r="G48" s="15" t="s">
         <v>302</v>
       </c>
       <c r="H48" s="1" t="s">
         <v>14</v>
       </c>
       <c r="I48" s="1"/>
-      <c r="J48" s="26" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" ht="294" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="9"/>
-      <c r="B49" s="10"/>
-      <c r="C49" s="9"/>
+      <c r="J48" s="22" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="294" x14ac:dyDescent="0.2">
+      <c r="A49" s="7"/>
+      <c r="B49" s="8"/>
+      <c r="C49" s="7"/>
       <c r="D49" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E49" s="15" t="s">
+      <c r="E49" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="F49" s="17" t="s">
+      <c r="F49" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="G49" s="17" t="s">
+      <c r="G49" s="15" t="s">
         <v>308</v>
       </c>
       <c r="H49" s="1"/>
       <c r="I49" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J49" s="26" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" ht="98" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="11">
+      <c r="J49" s="22" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="98" x14ac:dyDescent="0.2">
+      <c r="A50" s="9">
         <v>2016</v>
       </c>
-      <c r="B50" s="24" t="s">
+      <c r="B50" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="C50" s="11" t="s">
+      <c r="C50" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D50" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="E50" s="15" t="s">
+      <c r="D50" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E50" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="F50" s="16" t="s">
+      <c r="F50" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="G50" s="16" t="s">
+      <c r="G50" s="14" t="s">
         <v>304</v>
       </c>
       <c r="H50" s="1" t="s">
         <v>14</v>
       </c>
       <c r="I50" s="1"/>
-      <c r="J50" s="26" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" ht="266" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="12"/>
-      <c r="B51" s="25"/>
-      <c r="C51" s="12"/>
+      <c r="J50" s="22" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="266" x14ac:dyDescent="0.2">
+      <c r="A51" s="10"/>
+      <c r="B51" s="21"/>
+      <c r="C51" s="10"/>
       <c r="D51" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E51" s="15" t="s">
+      <c r="E51" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="F51" s="20" t="s">
+      <c r="F51" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="G51" s="20" t="s">
+      <c r="G51" s="16" t="s">
         <v>305</v>
       </c>
       <c r="H51" s="1"/>
       <c r="I51" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J51" s="26" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" ht="322" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="9">
+      <c r="J51" s="22" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" ht="322" x14ac:dyDescent="0.2">
+      <c r="A52" s="7">
         <v>2016</v>
       </c>
-      <c r="B52" s="10" t="s">
+      <c r="B52" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="C52" s="9" t="s">
+      <c r="C52" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="D52" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="E52" s="15" t="s">
+      <c r="D52" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E52" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="F52" s="17" t="s">
+      <c r="F52" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="G52" s="17" t="s">
+      <c r="G52" s="15" t="s">
         <v>304</v>
       </c>
       <c r="H52" s="1"/>
       <c r="I52" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J52" s="26" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" ht="70" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="9"/>
-      <c r="B53" s="10"/>
-      <c r="C53" s="9"/>
+      <c r="J52" s="22" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" ht="70" x14ac:dyDescent="0.2">
+      <c r="A53" s="7"/>
+      <c r="B53" s="8"/>
+      <c r="C53" s="7"/>
       <c r="D53" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E53" s="15" t="s">
+      <c r="E53" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="F53" s="17" t="s">
+      <c r="F53" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="G53" s="17" t="s">
+      <c r="G53" s="15" t="s">
         <v>306</v>
       </c>
       <c r="H53" s="1" t="s">
         <v>14</v>
       </c>
       <c r="I53" s="1"/>
-      <c r="J53" s="26" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" ht="140" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J53" s="22" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" ht="140" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>2016</v>
       </c>
@@ -3103,24 +3182,24 @@
       <c r="D54" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E54" s="15" t="s">
+      <c r="E54" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="F54" s="17" t="s">
+      <c r="F54" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="G54" s="17" t="s">
+      <c r="G54" s="15" t="s">
         <v>303</v>
       </c>
       <c r="H54" s="1" t="s">
         <v>14</v>
       </c>
       <c r="I54" s="1"/>
-      <c r="J54" s="26" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" ht="42" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J54" s="22" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" ht="42" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>2016</v>
       </c>
@@ -3133,24 +3212,24 @@
       <c r="D55" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E55" s="15" t="s">
+      <c r="E55" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="F55" s="17" t="s">
+      <c r="F55" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="G55" s="17" t="s">
+      <c r="G55" s="15" t="s">
         <v>302</v>
       </c>
       <c r="H55" s="1"/>
       <c r="I55" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J55" s="26" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" ht="154" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J55" s="22" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" ht="154" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>2016</v>
       </c>
@@ -3163,24 +3242,24 @@
       <c r="D56" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E56" s="15" t="s">
+      <c r="E56" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="F56" s="17" t="s">
+      <c r="F56" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="G56" s="17" t="s">
+      <c r="G56" s="15" t="s">
         <v>307</v>
       </c>
       <c r="H56" s="1"/>
       <c r="I56" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J56" s="26" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" ht="42" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J56" s="22" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" ht="42" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>2016</v>
       </c>
@@ -3193,24 +3272,24 @@
       <c r="D57" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E57" s="15" t="s">
+      <c r="E57" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="F57" s="17" t="s">
+      <c r="F57" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="G57" s="17" t="s">
+      <c r="G57" s="15" t="s">
         <v>302</v>
       </c>
       <c r="H57" s="1" t="s">
         <v>14</v>
       </c>
       <c r="I57" s="1"/>
-      <c r="J57" s="26" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" ht="98" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J57" s="22" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" ht="98" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>2016</v>
       </c>
@@ -3223,24 +3302,24 @@
       <c r="D58" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E58" s="15" t="s">
+      <c r="E58" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="F58" s="17" t="s">
+      <c r="F58" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="G58" s="17" t="s">
+      <c r="G58" s="15" t="s">
         <v>309</v>
       </c>
       <c r="H58" s="1"/>
       <c r="I58" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J58" s="26" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" ht="42" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J58" s="22" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" ht="42" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>2016</v>
       </c>
@@ -3253,24 +3332,24 @@
       <c r="D59" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="15" t="s">
+      <c r="E59" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="F59" s="17" t="s">
+      <c r="F59" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="G59" s="17" t="s">
+      <c r="G59" s="15" t="s">
         <v>302</v>
       </c>
       <c r="H59" s="1" t="s">
         <v>14</v>
       </c>
       <c r="I59" s="1"/>
-      <c r="J59" s="26" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" ht="154" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J59" s="22" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" ht="154" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>2016</v>
       </c>
@@ -3283,24 +3362,24 @@
       <c r="D60" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E60" s="15" t="s">
+      <c r="E60" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="F60" s="17" t="s">
+      <c r="F60" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="G60" s="17" t="s">
+      <c r="G60" s="15" t="s">
         <v>304</v>
       </c>
       <c r="H60" s="1"/>
       <c r="I60" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J60" s="26" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" ht="42" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J60" s="22" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" ht="42" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>2016</v>
       </c>
@@ -3313,24 +3392,24 @@
       <c r="D61" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E61" s="15" t="s">
+      <c r="E61" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="F61" s="17" t="s">
+      <c r="F61" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="G61" s="17" t="s">
+      <c r="G61" s="15" t="s">
         <v>302</v>
       </c>
       <c r="H61" s="1"/>
       <c r="I61" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J61" s="26" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" ht="252" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J61" s="22" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" ht="252" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>2016</v>
       </c>
@@ -3343,24 +3422,24 @@
       <c r="D62" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E62" s="15" t="s">
+      <c r="E62" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="F62" s="17" t="s">
+      <c r="F62" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="G62" s="17" t="s">
+      <c r="G62" s="15" t="s">
         <v>303</v>
       </c>
       <c r="H62" s="1" t="s">
         <v>14</v>
       </c>
       <c r="I62" s="1"/>
-      <c r="J62" s="26" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" ht="42" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J62" s="22" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" ht="42" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>2016</v>
       </c>
@@ -3373,24 +3452,24 @@
       <c r="D63" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E63" s="15" t="s">
+      <c r="E63" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="F63" s="17" t="s">
+      <c r="F63" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="G63" s="17" t="s">
+      <c r="G63" s="15" t="s">
         <v>302</v>
       </c>
       <c r="H63" s="1"/>
       <c r="I63" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J63" s="26" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" ht="28" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J63" s="22" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" ht="28" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>2016</v>
       </c>
@@ -3403,24 +3482,24 @@
       <c r="D64" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E64" s="15" t="s">
+      <c r="E64" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="F64" s="17" t="s">
+      <c r="F64" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="G64" s="17" t="s">
+      <c r="G64" s="15" t="s">
         <v>304</v>
       </c>
       <c r="H64" s="1" t="s">
         <v>14</v>
       </c>
       <c r="I64" s="1"/>
-      <c r="J64" s="26" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" ht="224" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J64" s="22" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" ht="224" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>2016</v>
       </c>
@@ -3433,24 +3512,24 @@
       <c r="D65" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E65" s="15" t="s">
+      <c r="E65" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="F65" s="20" t="s">
+      <c r="F65" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="G65" s="20" t="s">
+      <c r="G65" s="16" t="s">
         <v>307</v>
       </c>
       <c r="H65" s="1"/>
       <c r="I65" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J65" s="26" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" ht="28" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J65" s="22" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" ht="28" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>2016</v>
       </c>
@@ -3463,24 +3542,24 @@
       <c r="D66" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E66" s="15" t="s">
+      <c r="E66" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="F66" s="17" t="s">
+      <c r="F66" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="G66" s="17" t="s">
+      <c r="G66" s="15" t="s">
         <v>308</v>
       </c>
       <c r="H66" s="1"/>
       <c r="I66" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J66" s="26" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" ht="84" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J66" s="22" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" ht="84" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>2016</v>
       </c>
@@ -3493,24 +3572,24 @@
       <c r="D67" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E67" s="15" t="s">
+      <c r="E67" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="F67" s="17" t="s">
+      <c r="F67" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="G67" s="17" t="s">
+      <c r="G67" s="15" t="s">
         <v>302</v>
       </c>
       <c r="H67" s="1" t="s">
         <v>14</v>
       </c>
       <c r="I67" s="1"/>
-      <c r="J67" s="26" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" ht="42" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J67" s="22" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" ht="42" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>2017</v>
       </c>
@@ -3536,11 +3615,11 @@
       <c r="I68" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J68" s="26" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" ht="112" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J68" s="22" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" ht="112" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>2017</v>
       </c>
@@ -3566,11 +3645,11 @@
       <c r="I69" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J69" s="26" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" ht="252" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J69" s="22" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" ht="252" x14ac:dyDescent="0.2">
       <c r="A70" s="4">
         <v>2017</v>
       </c>
@@ -3583,24 +3662,24 @@
       <c r="D70" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E70" s="14" t="s">
+      <c r="E70" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="F70" s="16" t="s">
+      <c r="F70" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="G70" s="16" t="s">
+      <c r="G70" s="14" t="s">
         <v>303</v>
       </c>
       <c r="H70" s="1" t="s">
         <v>14</v>
       </c>
       <c r="I70" s="1"/>
-      <c r="J70" s="26" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" ht="42" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J70" s="22" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" ht="42" x14ac:dyDescent="0.2">
       <c r="A71" s="4">
         <v>2017</v>
       </c>
@@ -3613,24 +3692,24 @@
       <c r="D71" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E71" s="14" t="s">
+      <c r="E71" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="F71" s="16" t="s">
+      <c r="F71" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="G71" s="16" t="s">
+      <c r="G71" s="14" t="s">
         <v>302</v>
       </c>
       <c r="H71" s="1"/>
       <c r="I71" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J71" s="26" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" ht="56" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J71" s="22" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" ht="56" x14ac:dyDescent="0.2">
       <c r="A72" s="4">
         <v>2017</v>
       </c>
@@ -3643,24 +3722,24 @@
       <c r="D72" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E72" s="14" t="s">
+      <c r="E72" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="F72" s="16" t="s">
+      <c r="F72" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="G72" s="16" t="s">
+      <c r="G72" s="14" t="s">
         <v>302</v>
       </c>
       <c r="H72" s="1"/>
       <c r="I72" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J72" s="26" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" ht="84" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J72" s="22" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" ht="84" x14ac:dyDescent="0.2">
       <c r="A73" s="4">
         <v>2017</v>
       </c>
@@ -3673,24 +3752,24 @@
       <c r="D73" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E73" s="14" t="s">
+      <c r="E73" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="F73" s="16" t="s">
+      <c r="F73" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="G73" s="16" t="s">
+      <c r="G73" s="14" t="s">
         <v>306</v>
       </c>
       <c r="H73" s="1" t="s">
         <v>14</v>
       </c>
       <c r="I73" s="1"/>
-      <c r="J73" s="26" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" ht="42" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J73" s="22" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" ht="42" x14ac:dyDescent="0.2">
       <c r="A74" s="4">
         <v>2017</v>
       </c>
@@ -3703,7 +3782,7 @@
       <c r="D74" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E74" s="21" t="s">
+      <c r="E74" s="17" t="s">
         <v>72</v>
       </c>
       <c r="F74" s="6" t="s">
@@ -3712,15 +3791,15 @@
       <c r="G74" s="6" t="s">
         <v>302</v>
       </c>
-      <c r="H74" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="I74" s="23"/>
-      <c r="J74" s="26" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" ht="154" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H74" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="I74" s="19"/>
+      <c r="J74" s="22" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" ht="154" x14ac:dyDescent="0.2">
       <c r="A75" s="4">
         <v>2017</v>
       </c>
@@ -3733,24 +3812,24 @@
       <c r="D75" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E75" s="14" t="s">
+      <c r="E75" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="F75" s="16" t="s">
+      <c r="F75" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="G75" s="16" t="s">
+      <c r="G75" s="14" t="s">
         <v>303</v>
       </c>
       <c r="H75" s="1" t="s">
         <v>14</v>
       </c>
       <c r="I75" s="1"/>
-      <c r="J75" s="26" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" ht="280" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J75" s="22" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" ht="280" x14ac:dyDescent="0.2">
       <c r="A76" s="4">
         <v>2017</v>
       </c>
@@ -3776,11 +3855,11 @@
         <v>14</v>
       </c>
       <c r="I76" s="1"/>
-      <c r="J76" s="26" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" ht="70" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J76" s="22" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" ht="70" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>2017</v>
       </c>
@@ -3806,11 +3885,11 @@
       <c r="I77" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J77" s="26" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" ht="224" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J77" s="22" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" ht="224" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>2017</v>
       </c>
@@ -3836,11 +3915,11 @@
         <v>14</v>
       </c>
       <c r="I78" s="1"/>
-      <c r="J78" s="26" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10" ht="42" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J78" s="22" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" ht="42" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>2018</v>
       </c>
@@ -3866,11 +3945,11 @@
         <v>14</v>
       </c>
       <c r="I79" s="1"/>
-      <c r="J79" s="26" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10" ht="252" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J79" s="22" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" ht="252" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>2018</v>
       </c>
@@ -3896,11 +3975,11 @@
       <c r="I80" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J80" s="26" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10" ht="308" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J80" s="22" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" ht="308" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>2018</v>
       </c>
@@ -3926,11 +4005,11 @@
       <c r="I81" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J81" s="26" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10" ht="42" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J81" s="22" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" ht="42" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>2018</v>
       </c>
@@ -3956,11 +4035,11 @@
         <v>14</v>
       </c>
       <c r="I82" s="1"/>
-      <c r="J82" s="26" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10" ht="154" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J82" s="22" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" ht="154" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>2018</v>
       </c>
@@ -3986,11 +4065,11 @@
         <v>14</v>
       </c>
       <c r="I83" s="1"/>
-      <c r="J83" s="26" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10" ht="409.6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J83" s="22" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>2018</v>
       </c>
@@ -4016,11 +4095,11 @@
         <v>14</v>
       </c>
       <c r="I84" s="1"/>
-      <c r="J84" s="26" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10" ht="196" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J84" s="22" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" ht="196" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>2018</v>
       </c>
@@ -4046,11 +4125,11 @@
       <c r="I85" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J85" s="26" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10" ht="196" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J85" s="22" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" ht="196" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>2018</v>
       </c>
@@ -4076,18 +4155,18 @@
       <c r="I86" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J86" s="26" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10" ht="140" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="9">
+      <c r="J86" s="22" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" ht="140" x14ac:dyDescent="0.2">
+      <c r="A87" s="7">
         <v>2018</v>
       </c>
-      <c r="B87" s="10" t="s">
+      <c r="B87" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="C87" s="9" t="s">
+      <c r="C87" s="7" t="s">
         <v>28</v>
       </c>
       <c r="D87" s="1" t="s">
@@ -4106,14 +4185,14 @@
         <v>14</v>
       </c>
       <c r="I87" s="1"/>
-      <c r="J87" s="26" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10" ht="42" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="9"/>
-      <c r="B88" s="10"/>
-      <c r="C88" s="9"/>
+      <c r="J87" s="22" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" ht="42" x14ac:dyDescent="0.2">
+      <c r="A88" s="7"/>
+      <c r="B88" s="8"/>
+      <c r="C88" s="7"/>
       <c r="D88" s="1" t="s">
         <v>20</v>
       </c>
@@ -4130,14 +4209,14 @@
         <v>14</v>
       </c>
       <c r="I88" s="1"/>
-      <c r="J88" s="26" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10" ht="70" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="9"/>
-      <c r="B89" s="10"/>
-      <c r="C89" s="9"/>
+      <c r="J88" s="22" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" ht="70" x14ac:dyDescent="0.2">
+      <c r="A89" s="7"/>
+      <c r="B89" s="8"/>
+      <c r="C89" s="7"/>
       <c r="D89" s="1" t="s">
         <v>20</v>
       </c>
@@ -4154,11 +4233,11 @@
       <c r="I89" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J89" s="26" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="90" spans="1:10" ht="98" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J89" s="22" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" ht="98" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>2017</v>
       </c>
@@ -4184,11 +4263,11 @@
         <v>14</v>
       </c>
       <c r="I90" s="1"/>
-      <c r="J90" s="26" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="91" spans="1:10" ht="238" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J90" s="22" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" ht="238" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>2018</v>
       </c>
@@ -4214,18 +4293,18 @@
         <v>14</v>
       </c>
       <c r="I91" s="1"/>
-      <c r="J91" s="26" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="92" spans="1:10" ht="182" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="9">
+      <c r="J91" s="22" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" ht="182" x14ac:dyDescent="0.2">
+      <c r="A92" s="7">
         <v>2013</v>
       </c>
-      <c r="B92" s="10" t="s">
+      <c r="B92" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="C92" s="9" t="s">
+      <c r="C92" s="7" t="s">
         <v>19</v>
       </c>
       <c r="D92" s="1" t="s">
@@ -4244,14 +4323,14 @@
       <c r="I92" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J92" s="26" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="93" spans="1:10" ht="196" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="9"/>
-      <c r="B93" s="10"/>
-      <c r="C93" s="9"/>
+      <c r="J92" s="22" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" ht="196" x14ac:dyDescent="0.2">
+      <c r="A93" s="7"/>
+      <c r="B93" s="8"/>
+      <c r="C93" s="7"/>
       <c r="D93" s="1" t="s">
         <v>11</v>
       </c>
@@ -4268,14 +4347,14 @@
       <c r="I93" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J93" s="26" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="94" spans="1:10" ht="182" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="9"/>
-      <c r="B94" s="10"/>
-      <c r="C94" s="9"/>
+      <c r="J93" s="22" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" ht="182" x14ac:dyDescent="0.2">
+      <c r="A94" s="7"/>
+      <c r="B94" s="8"/>
+      <c r="C94" s="7"/>
       <c r="D94" s="1" t="s">
         <v>20</v>
       </c>
@@ -4292,11 +4371,11 @@
         <v>14</v>
       </c>
       <c r="I94" s="1"/>
-      <c r="J94" s="26" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="95" spans="1:10" ht="182" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J94" s="22" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" ht="182" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>2013</v>
       </c>
@@ -4322,11 +4401,11 @@
         <v>14</v>
       </c>
       <c r="I95" s="1"/>
-      <c r="J95" s="26" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="96" spans="1:10" ht="196" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J95" s="22" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" ht="196" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>2013</v>
       </c>
@@ -4342,28 +4421,28 @@
       <c r="E96" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="F96" s="13" t="s">
+      <c r="F96" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="G96" s="13" t="s">
+      <c r="G96" s="11" t="s">
         <v>309</v>
       </c>
       <c r="H96" s="1"/>
       <c r="I96" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J96" s="26" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="97" spans="1:10" ht="154" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="11">
+      <c r="J96" s="22" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" ht="154" x14ac:dyDescent="0.2">
+      <c r="A97" s="9">
         <v>2013</v>
       </c>
-      <c r="B97" s="24" t="s">
+      <c r="B97" s="20" t="s">
         <v>151</v>
       </c>
-      <c r="C97" s="11" t="s">
+      <c r="C97" s="9" t="s">
         <v>10</v>
       </c>
       <c r="D97" s="1" t="s">
@@ -4372,48 +4451,48 @@
       <c r="E97" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F97" s="13" t="s">
+      <c r="F97" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="G97" s="13" t="s">
+      <c r="G97" s="11" t="s">
         <v>309</v>
       </c>
       <c r="H97" s="1"/>
       <c r="I97" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J97" s="26" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="98" spans="1:10" ht="154" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="32"/>
-      <c r="B98" s="33"/>
-      <c r="C98" s="32"/>
+      <c r="J97" s="22" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" ht="154" x14ac:dyDescent="0.2">
+      <c r="A98" s="26"/>
+      <c r="B98" s="27"/>
+      <c r="C98" s="26"/>
       <c r="D98" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E98" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F98" s="13" t="s">
+      <c r="F98" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="G98" s="13" t="s">
+      <c r="G98" s="11" t="s">
         <v>309</v>
       </c>
       <c r="H98" s="1"/>
       <c r="I98" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J98" s="26" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="99" spans="1:10" ht="42" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="32"/>
-      <c r="B99" s="33"/>
-      <c r="C99" s="32"/>
+      <c r="J98" s="22" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" ht="42" x14ac:dyDescent="0.2">
+      <c r="A99" s="26"/>
+      <c r="B99" s="27"/>
+      <c r="C99" s="26"/>
       <c r="D99" s="1" t="s">
         <v>20</v>
       </c>
@@ -4430,66 +4509,66 @@
       <c r="I99" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J99" s="26" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="100" spans="1:10" ht="210" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="32"/>
-      <c r="B100" s="33"/>
-      <c r="C100" s="32"/>
+      <c r="J99" s="22" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" ht="210" x14ac:dyDescent="0.2">
+      <c r="A100" s="26"/>
+      <c r="B100" s="27"/>
+      <c r="C100" s="26"/>
       <c r="D100" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E100" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F100" s="13" t="s">
+      <c r="F100" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="G100" s="13" t="s">
+      <c r="G100" s="11" t="s">
         <v>309</v>
       </c>
       <c r="H100" s="1" t="s">
         <v>14</v>
       </c>
       <c r="I100" s="1"/>
-      <c r="J100" s="26" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="101" spans="1:10" ht="224" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="12"/>
-      <c r="B101" s="25"/>
-      <c r="C101" s="12"/>
+      <c r="J100" s="22" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" ht="224" x14ac:dyDescent="0.2">
+      <c r="A101" s="10"/>
+      <c r="B101" s="21"/>
+      <c r="C101" s="10"/>
       <c r="D101" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E101" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F101" s="13" t="s">
+      <c r="F101" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="G101" s="13" t="s">
+      <c r="G101" s="11" t="s">
         <v>309</v>
       </c>
       <c r="H101" s="1"/>
       <c r="I101" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J101" s="26" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="102" spans="1:10" ht="154" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="11">
+      <c r="J101" s="22" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" ht="154" x14ac:dyDescent="0.2">
+      <c r="A102" s="9">
         <v>2013</v>
       </c>
-      <c r="B102" s="24" t="s">
+      <c r="B102" s="20" t="s">
         <v>151</v>
       </c>
-      <c r="C102" s="11" t="s">
+      <c r="C102" s="9" t="s">
         <v>10</v>
       </c>
       <c r="D102" s="1" t="s">
@@ -4498,124 +4577,124 @@
       <c r="E102" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F102" s="13" t="s">
+      <c r="F102" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="G102" s="13" t="s">
+      <c r="G102" s="11" t="s">
         <v>309</v>
       </c>
       <c r="H102" s="1"/>
       <c r="I102" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J102" s="26" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="103" spans="1:10" ht="210" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="32"/>
-      <c r="B103" s="33"/>
-      <c r="C103" s="32"/>
+      <c r="J102" s="22" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" ht="210" x14ac:dyDescent="0.2">
+      <c r="A103" s="26"/>
+      <c r="B103" s="27"/>
+      <c r="C103" s="26"/>
       <c r="D103" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E103" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F103" s="13" t="s">
+      <c r="F103" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="G103" s="13" t="s">
+      <c r="G103" s="11" t="s">
         <v>309</v>
       </c>
       <c r="H103" s="1"/>
       <c r="I103" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J103" s="26" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="104" spans="1:10" ht="210" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="32"/>
-      <c r="B104" s="33"/>
-      <c r="C104" s="32"/>
+      <c r="J103" s="22" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" ht="210" x14ac:dyDescent="0.2">
+      <c r="A104" s="26"/>
+      <c r="B104" s="27"/>
+      <c r="C104" s="26"/>
       <c r="D104" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E104" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F104" s="13" t="s">
+      <c r="F104" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="G104" s="13" t="s">
+      <c r="G104" s="11" t="s">
         <v>309</v>
       </c>
       <c r="H104" s="1" t="s">
         <v>14</v>
       </c>
       <c r="I104" s="1"/>
-      <c r="J104" s="26" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="105" spans="1:10" ht="196" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="32"/>
-      <c r="B105" s="33"/>
-      <c r="C105" s="32"/>
+      <c r="J104" s="22" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" ht="196" x14ac:dyDescent="0.2">
+      <c r="A105" s="26"/>
+      <c r="B105" s="27"/>
+      <c r="C105" s="26"/>
       <c r="D105" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E105" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F105" s="13" t="s">
+      <c r="F105" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="G105" s="13" t="s">
+      <c r="G105" s="11" t="s">
         <v>309</v>
       </c>
       <c r="H105" s="1"/>
       <c r="I105" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J105" s="26" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="106" spans="1:10" ht="154" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="12"/>
-      <c r="B106" s="25"/>
-      <c r="C106" s="12"/>
+      <c r="J105" s="22" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" ht="154" x14ac:dyDescent="0.2">
+      <c r="A106" s="10"/>
+      <c r="B106" s="21"/>
+      <c r="C106" s="10"/>
       <c r="D106" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E106" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F106" s="13" t="s">
+      <c r="F106" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="G106" s="13" t="s">
+      <c r="G106" s="11" t="s">
         <v>309</v>
       </c>
       <c r="H106" s="1" t="s">
         <v>14</v>
       </c>
       <c r="I106" s="1"/>
-      <c r="J106" s="26" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="107" spans="1:10" ht="56" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="11">
+      <c r="J106" s="22" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" ht="56" x14ac:dyDescent="0.2">
+      <c r="A107" s="9">
         <v>2013</v>
       </c>
-      <c r="B107" s="24" t="s">
+      <c r="B107" s="20" t="s">
         <v>151</v>
       </c>
-      <c r="C107" s="11" t="s">
+      <c r="C107" s="9" t="s">
         <v>19</v>
       </c>
       <c r="D107" s="1" t="s">
@@ -4634,14 +4713,14 @@
         <v>14</v>
       </c>
       <c r="I107" s="1"/>
-      <c r="J107" s="26" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="108" spans="1:10" ht="56" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="32"/>
-      <c r="B108" s="33"/>
-      <c r="C108" s="32"/>
+      <c r="J107" s="22" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" ht="56" x14ac:dyDescent="0.2">
+      <c r="A108" s="26"/>
+      <c r="B108" s="27"/>
+      <c r="C108" s="26"/>
       <c r="D108" s="1" t="s">
         <v>11</v>
       </c>
@@ -4658,14 +4737,14 @@
         <v>14</v>
       </c>
       <c r="I108" s="1"/>
-      <c r="J108" s="26" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="109" spans="1:10" ht="56" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="32"/>
-      <c r="B109" s="33"/>
-      <c r="C109" s="32"/>
+      <c r="J108" s="22" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" ht="56" x14ac:dyDescent="0.2">
+      <c r="A109" s="26"/>
+      <c r="B109" s="27"/>
+      <c r="C109" s="26"/>
       <c r="D109" s="1" t="s">
         <v>11</v>
       </c>
@@ -4682,38 +4761,38 @@
       <c r="I109" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J109" s="26" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="110" spans="1:10" ht="154" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="32"/>
-      <c r="B110" s="33"/>
-      <c r="C110" s="32"/>
+      <c r="J109" s="22" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" ht="154" x14ac:dyDescent="0.2">
+      <c r="A110" s="26"/>
+      <c r="B110" s="27"/>
+      <c r="C110" s="26"/>
       <c r="D110" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E110" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F110" s="13" t="s">
+      <c r="F110" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="G110" s="13" t="s">
+      <c r="G110" s="11" t="s">
         <v>309</v>
       </c>
       <c r="H110" s="1" t="s">
         <v>14</v>
       </c>
       <c r="I110" s="1"/>
-      <c r="J110" s="26" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="111" spans="1:10" ht="56" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="32"/>
-      <c r="B111" s="33"/>
-      <c r="C111" s="32"/>
+      <c r="J110" s="22" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" ht="56" x14ac:dyDescent="0.2">
+      <c r="A111" s="26"/>
+      <c r="B111" s="27"/>
+      <c r="C111" s="26"/>
       <c r="D111" s="1" t="s">
         <v>11</v>
       </c>
@@ -4730,59 +4809,59 @@
       <c r="I111" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J111" s="26" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="112" spans="1:10" ht="154" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="32"/>
-      <c r="B112" s="33"/>
-      <c r="C112" s="32"/>
+      <c r="J111" s="22" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" ht="154" x14ac:dyDescent="0.2">
+      <c r="A112" s="26"/>
+      <c r="B112" s="27"/>
+      <c r="C112" s="26"/>
       <c r="D112" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E112" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F112" s="13" t="s">
+      <c r="F112" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="G112" s="13" t="s">
+      <c r="G112" s="11" t="s">
         <v>309</v>
       </c>
       <c r="H112" s="1"/>
       <c r="I112" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J112" s="26" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="113" spans="1:10" ht="154" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="12"/>
-      <c r="B113" s="25"/>
-      <c r="C113" s="12"/>
+      <c r="J112" s="22" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" ht="154" x14ac:dyDescent="0.2">
+      <c r="A113" s="10"/>
+      <c r="B113" s="21"/>
+      <c r="C113" s="10"/>
       <c r="D113" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E113" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F113" s="13" t="s">
+      <c r="F113" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="G113" s="13" t="s">
+      <c r="G113" s="11" t="s">
         <v>309</v>
       </c>
       <c r="H113" s="1" t="s">
         <v>14</v>
       </c>
       <c r="I113" s="1"/>
-      <c r="J113" s="26" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="114" spans="1:10" ht="224" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J113" s="22" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" ht="224" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <v>2013</v>
       </c>
@@ -4798,21 +4877,21 @@
       <c r="E114" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F114" s="13" t="s">
+      <c r="F114" s="11" t="s">
         <v>166</v>
       </c>
-      <c r="G114" s="13" t="s">
+      <c r="G114" s="11" t="s">
         <v>309</v>
       </c>
       <c r="H114" s="1" t="s">
         <v>14</v>
       </c>
       <c r="I114" s="1"/>
-      <c r="J114" s="26" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="115" spans="1:10" ht="140" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J114" s="22" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" ht="140" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>2013</v>
       </c>
@@ -4828,28 +4907,28 @@
       <c r="E115" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F115" s="13" t="s">
+      <c r="F115" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="G115" s="13" t="s">
+      <c r="G115" s="11" t="s">
         <v>309</v>
       </c>
       <c r="H115" s="1" t="s">
         <v>14</v>
       </c>
       <c r="I115" s="1"/>
-      <c r="J115" s="26" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="116" spans="1:10" ht="182" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="9">
+      <c r="J115" s="22" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" ht="182" x14ac:dyDescent="0.2">
+      <c r="A116" s="7">
         <v>2013</v>
       </c>
-      <c r="B116" s="10" t="s">
+      <c r="B116" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="C116" s="9" t="s">
+      <c r="C116" s="7" t="s">
         <v>37</v>
       </c>
       <c r="D116" s="1" t="s">
@@ -4858,24 +4937,24 @@
       <c r="E116" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F116" s="13" t="s">
+      <c r="F116" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="G116" s="13" t="s">
+      <c r="G116" s="11" t="s">
         <v>309</v>
       </c>
       <c r="H116" s="1" t="s">
         <v>14</v>
       </c>
       <c r="I116" s="1"/>
-      <c r="J116" s="26" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="117" spans="1:10" ht="42" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="9"/>
-      <c r="B117" s="10"/>
-      <c r="C117" s="9"/>
+      <c r="J116" s="22" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" ht="42" x14ac:dyDescent="0.2">
+      <c r="A117" s="7"/>
+      <c r="B117" s="8"/>
+      <c r="C117" s="7"/>
       <c r="D117" s="1" t="s">
         <v>11</v>
       </c>
@@ -4892,14 +4971,14 @@
       <c r="I117" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J117" s="26" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="118" spans="1:10" ht="42" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="9"/>
-      <c r="B118" s="10"/>
-      <c r="C118" s="9"/>
+      <c r="J117" s="22" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" ht="42" x14ac:dyDescent="0.2">
+      <c r="A118" s="7"/>
+      <c r="B118" s="8"/>
+      <c r="C118" s="7"/>
       <c r="D118" s="1" t="s">
         <v>11</v>
       </c>
@@ -4916,162 +4995,162 @@
       <c r="I118" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J118" s="26" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="119" spans="1:10" ht="196" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="9"/>
-      <c r="B119" s="10"/>
-      <c r="C119" s="9"/>
+      <c r="J118" s="22" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" ht="196" x14ac:dyDescent="0.2">
+      <c r="A119" s="7"/>
+      <c r="B119" s="8"/>
+      <c r="C119" s="7"/>
       <c r="D119" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E119" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F119" s="13" t="s">
+      <c r="F119" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="G119" s="13" t="s">
+      <c r="G119" s="11" t="s">
         <v>309</v>
       </c>
       <c r="H119" s="1"/>
       <c r="I119" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J119" s="26" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="120" spans="1:10" ht="126" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="9"/>
-      <c r="B120" s="10"/>
-      <c r="C120" s="9"/>
+      <c r="J119" s="22" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" ht="126" x14ac:dyDescent="0.2">
+      <c r="A120" s="7"/>
+      <c r="B120" s="8"/>
+      <c r="C120" s="7"/>
       <c r="D120" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E120" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F120" s="13" t="s">
+      <c r="F120" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="G120" s="13" t="s">
+      <c r="G120" s="11" t="s">
         <v>309</v>
       </c>
       <c r="H120" s="1"/>
       <c r="I120" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J120" s="26" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="121" spans="1:10" ht="182" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="9"/>
-      <c r="B121" s="10"/>
-      <c r="C121" s="9"/>
+      <c r="J120" s="22" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" ht="182" x14ac:dyDescent="0.2">
+      <c r="A121" s="7"/>
+      <c r="B121" s="8"/>
+      <c r="C121" s="7"/>
       <c r="D121" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E121" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F121" s="13" t="s">
+      <c r="F121" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="G121" s="13" t="s">
+      <c r="G121" s="11" t="s">
         <v>307</v>
       </c>
       <c r="H121" s="1" t="s">
         <v>14</v>
       </c>
       <c r="I121" s="1"/>
-      <c r="J121" s="26" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="122" spans="1:10" ht="210" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="9"/>
-      <c r="B122" s="10"/>
-      <c r="C122" s="9"/>
+      <c r="J121" s="22" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" ht="210" x14ac:dyDescent="0.2">
+      <c r="A122" s="7"/>
+      <c r="B122" s="8"/>
+      <c r="C122" s="7"/>
       <c r="D122" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E122" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F122" s="13" t="s">
+      <c r="F122" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="G122" s="13" t="s">
+      <c r="G122" s="11" t="s">
         <v>309</v>
       </c>
       <c r="H122" s="1" t="s">
         <v>14</v>
       </c>
       <c r="I122" s="1"/>
-      <c r="J122" s="26" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="123" spans="1:10" ht="140" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="9"/>
-      <c r="B123" s="10"/>
-      <c r="C123" s="9"/>
+      <c r="J122" s="22" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" ht="140" x14ac:dyDescent="0.2">
+      <c r="A123" s="7"/>
+      <c r="B123" s="8"/>
+      <c r="C123" s="7"/>
       <c r="D123" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E123" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F123" s="13" t="s">
+      <c r="F123" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="G123" s="13" t="s">
+      <c r="G123" s="11" t="s">
         <v>309</v>
       </c>
       <c r="H123" s="1" t="s">
         <v>14</v>
       </c>
       <c r="I123" s="1"/>
-      <c r="J123" s="26" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="124" spans="1:10" ht="168" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="9"/>
-      <c r="B124" s="10"/>
-      <c r="C124" s="9"/>
+      <c r="J123" s="22" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" ht="168" x14ac:dyDescent="0.2">
+      <c r="A124" s="7"/>
+      <c r="B124" s="8"/>
+      <c r="C124" s="7"/>
       <c r="D124" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E124" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="F124" s="13" t="s">
+      <c r="F124" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="G124" s="13" t="s">
+      <c r="G124" s="11" t="s">
         <v>309</v>
       </c>
       <c r="H124" s="1" t="s">
         <v>14</v>
       </c>
       <c r="I124" s="1"/>
-      <c r="J124" s="26" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="125" spans="1:10" ht="56" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="9">
+      <c r="J124" s="22" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" ht="56" x14ac:dyDescent="0.2">
+      <c r="A125" s="7">
         <v>2013</v>
       </c>
-      <c r="B125" s="10" t="s">
+      <c r="B125" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="C125" s="9" t="s">
+      <c r="C125" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D125" s="1" t="s">
@@ -5090,14 +5169,14 @@
       <c r="I125" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J125" s="26" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="126" spans="1:10" ht="56" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="9"/>
-      <c r="B126" s="10"/>
-      <c r="C126" s="9"/>
+      <c r="J125" s="22" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" ht="56" x14ac:dyDescent="0.2">
+      <c r="A126" s="7"/>
+      <c r="B126" s="8"/>
+      <c r="C126" s="7"/>
       <c r="D126" s="1" t="s">
         <v>20</v>
       </c>
@@ -5114,14 +5193,14 @@
       <c r="I126" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J126" s="26" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="127" spans="1:10" ht="56" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="9"/>
-      <c r="B127" s="10"/>
-      <c r="C127" s="9"/>
+      <c r="J126" s="22" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" ht="56" x14ac:dyDescent="0.2">
+      <c r="A127" s="7"/>
+      <c r="B127" s="8"/>
+      <c r="C127" s="7"/>
       <c r="D127" s="1" t="s">
         <v>11</v>
       </c>
@@ -5138,38 +5217,38 @@
       <c r="I127" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J127" s="26" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="128" spans="1:10" ht="112" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="9"/>
-      <c r="B128" s="10"/>
-      <c r="C128" s="9"/>
+      <c r="J127" s="22" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" ht="112" x14ac:dyDescent="0.2">
+      <c r="A128" s="7"/>
+      <c r="B128" s="8"/>
+      <c r="C128" s="7"/>
       <c r="D128" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E128" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="F128" s="13" t="s">
+      <c r="F128" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="G128" s="13" t="s">
+      <c r="G128" s="11" t="s">
         <v>309</v>
       </c>
       <c r="H128" s="1"/>
       <c r="I128" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J128" s="26" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="129" spans="1:10" ht="42" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A129" s="9"/>
-      <c r="B129" s="10"/>
-      <c r="C129" s="9"/>
+      <c r="J128" s="22" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" ht="42" x14ac:dyDescent="0.2">
+      <c r="A129" s="7"/>
+      <c r="B129" s="8"/>
+      <c r="C129" s="7"/>
       <c r="D129" s="1" t="s">
         <v>11</v>
       </c>
@@ -5186,18 +5265,18 @@
       <c r="I129" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J129" s="26" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="130" spans="1:10" ht="168" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A130" s="9">
+      <c r="J129" s="22" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" ht="168" x14ac:dyDescent="0.2">
+      <c r="A130" s="7">
         <v>2013</v>
       </c>
-      <c r="B130" s="10" t="s">
+      <c r="B130" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="C130" s="11" t="s">
+      <c r="C130" s="9" t="s">
         <v>45</v>
       </c>
       <c r="D130" s="1" t="s">
@@ -5206,76 +5285,76 @@
       <c r="E130" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="F130" s="13" t="s">
+      <c r="F130" s="11" t="s">
         <v>178</v>
       </c>
-      <c r="G130" s="13" t="s">
+      <c r="G130" s="11" t="s">
         <v>309</v>
       </c>
       <c r="H130" s="1"/>
       <c r="I130" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J130" s="26" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="131" spans="1:10" ht="140" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A131" s="9"/>
-      <c r="B131" s="10"/>
-      <c r="C131" s="32"/>
+      <c r="J130" s="22" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" ht="140" x14ac:dyDescent="0.2">
+      <c r="A131" s="7"/>
+      <c r="B131" s="8"/>
+      <c r="C131" s="26"/>
       <c r="D131" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E131" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F131" s="13" t="s">
+      <c r="F131" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="G131" s="13" t="s">
+      <c r="G131" s="11" t="s">
         <v>309</v>
       </c>
       <c r="H131" s="1"/>
       <c r="I131" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J131" s="26" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="132" spans="1:10" ht="140" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A132" s="9"/>
-      <c r="B132" s="10"/>
-      <c r="C132" s="12"/>
+      <c r="J131" s="22" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" ht="140" x14ac:dyDescent="0.2">
+      <c r="A132" s="7"/>
+      <c r="B132" s="8"/>
+      <c r="C132" s="10"/>
       <c r="D132" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E132" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F132" s="13" t="s">
+      <c r="F132" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="G132" s="13" t="s">
+      <c r="G132" s="11" t="s">
         <v>309</v>
       </c>
       <c r="H132" s="1" t="s">
         <v>14</v>
       </c>
       <c r="I132" s="1"/>
-      <c r="J132" s="26" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="133" spans="1:10" ht="196" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="9">
+      <c r="J132" s="22" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" ht="196" x14ac:dyDescent="0.2">
+      <c r="A133" s="7">
         <v>2013</v>
       </c>
-      <c r="B133" s="10" t="s">
+      <c r="B133" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="C133" s="9" t="s">
+      <c r="C133" s="7" t="s">
         <v>28</v>
       </c>
       <c r="D133" s="1" t="s">
@@ -5284,45 +5363,45 @@
       <c r="E133" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F133" s="13" t="s">
+      <c r="F133" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="G133" s="13" t="s">
+      <c r="G133" s="11" t="s">
         <v>309</v>
       </c>
       <c r="H133" s="1" t="s">
         <v>14</v>
       </c>
       <c r="I133" s="1"/>
-      <c r="J133" s="26" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="134" spans="1:10" ht="280" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="9"/>
-      <c r="B134" s="10"/>
-      <c r="C134" s="9"/>
+      <c r="J133" s="22" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" ht="280" x14ac:dyDescent="0.2">
+      <c r="A134" s="7"/>
+      <c r="B134" s="8"/>
+      <c r="C134" s="7"/>
       <c r="D134" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E134" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F134" s="13" t="s">
+      <c r="F134" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="G134" s="13" t="s">
+      <c r="G134" s="11" t="s">
         <v>307</v>
       </c>
       <c r="H134" s="1"/>
       <c r="I134" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J134" s="26" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="135" spans="1:10" ht="224" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J134" s="22" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" ht="224" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
         <v>2014</v>
       </c>
@@ -5348,11 +5427,11 @@
       <c r="I135" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J135" s="26" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="136" spans="1:10" ht="112" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J135" s="22" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" ht="112" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
         <v>2014</v>
       </c>
@@ -5378,18 +5457,18 @@
       <c r="I136" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J136" s="26" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="137" spans="1:10" ht="126" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A137" s="11">
+      <c r="J136" s="22" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" ht="126" x14ac:dyDescent="0.2">
+      <c r="A137" s="9">
         <v>2014</v>
       </c>
-      <c r="B137" s="24" t="s">
+      <c r="B137" s="20" t="s">
         <v>185</v>
       </c>
-      <c r="C137" s="11" t="s">
+      <c r="C137" s="9" t="s">
         <v>32</v>
       </c>
       <c r="D137" s="1" t="s">
@@ -5408,14 +5487,14 @@
       <c r="I137" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J137" s="26" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="138" spans="1:10" ht="168" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A138" s="12"/>
-      <c r="B138" s="25"/>
-      <c r="C138" s="12"/>
+      <c r="J137" s="22" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" ht="168" x14ac:dyDescent="0.2">
+      <c r="A138" s="10"/>
+      <c r="B138" s="21"/>
+      <c r="C138" s="10"/>
       <c r="D138" s="1" t="s">
         <v>11</v>
       </c>
@@ -5432,18 +5511,18 @@
       <c r="I138" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J138" s="26" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="139" spans="1:10" ht="70" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A139" s="9">
+      <c r="J138" s="22" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" ht="70" x14ac:dyDescent="0.2">
+      <c r="A139" s="7">
         <v>2014</v>
       </c>
-      <c r="B139" s="10" t="s">
+      <c r="B139" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="C139" s="9" t="s">
+      <c r="C139" s="7" t="s">
         <v>84</v>
       </c>
       <c r="D139" s="1" t="s">
@@ -5462,42 +5541,42 @@
       <c r="I139" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J139" s="26" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="140" spans="1:10" ht="336" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A140" s="9"/>
-      <c r="B140" s="10"/>
-      <c r="C140" s="9"/>
+      <c r="J139" s="22" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" ht="336" x14ac:dyDescent="0.2">
+      <c r="A140" s="7"/>
+      <c r="B140" s="8"/>
+      <c r="C140" s="7"/>
       <c r="D140" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E140" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F140" s="13" t="s">
+      <c r="F140" s="11" t="s">
         <v>190</v>
       </c>
-      <c r="G140" s="13" t="s">
+      <c r="G140" s="11" t="s">
         <v>303</v>
       </c>
       <c r="H140" s="1" t="s">
         <v>14</v>
       </c>
       <c r="I140" s="1"/>
-      <c r="J140" s="26" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="141" spans="1:10" ht="112" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A141" s="11">
+      <c r="J140" s="22" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" ht="112" x14ac:dyDescent="0.2">
+      <c r="A141" s="9">
         <v>2014</v>
       </c>
-      <c r="B141" s="24" t="s">
+      <c r="B141" s="20" t="s">
         <v>185</v>
       </c>
-      <c r="C141" s="11" t="s">
+      <c r="C141" s="9" t="s">
         <v>19</v>
       </c>
       <c r="D141" s="1" t="s">
@@ -5516,14 +5595,14 @@
         <v>14</v>
       </c>
       <c r="I141" s="1"/>
-      <c r="J141" s="26" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="142" spans="1:10" ht="182" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A142" s="32"/>
-      <c r="B142" s="33"/>
-      <c r="C142" s="32"/>
+      <c r="J141" s="22" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" ht="182" x14ac:dyDescent="0.2">
+      <c r="A142" s="26"/>
+      <c r="B142" s="27"/>
+      <c r="C142" s="26"/>
       <c r="D142" s="1" t="s">
         <v>11</v>
       </c>
@@ -5540,14 +5619,14 @@
         <v>14</v>
       </c>
       <c r="I142" s="1"/>
-      <c r="J142" s="26" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="143" spans="1:10" ht="126" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A143" s="32"/>
-      <c r="B143" s="33"/>
-      <c r="C143" s="32"/>
+      <c r="J142" s="22" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" ht="126" x14ac:dyDescent="0.2">
+      <c r="A143" s="26"/>
+      <c r="B143" s="27"/>
+      <c r="C143" s="26"/>
       <c r="D143" s="1" t="s">
         <v>11</v>
       </c>
@@ -5564,14 +5643,14 @@
       <c r="I143" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J143" s="26" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="144" spans="1:10" ht="56" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A144" s="32"/>
-      <c r="B144" s="33"/>
-      <c r="C144" s="32"/>
+      <c r="J143" s="22" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" ht="56" x14ac:dyDescent="0.2">
+      <c r="A144" s="26"/>
+      <c r="B144" s="27"/>
+      <c r="C144" s="26"/>
       <c r="D144" s="1" t="s">
         <v>20</v>
       </c>
@@ -5588,14 +5667,14 @@
         <v>14</v>
       </c>
       <c r="I144" s="1"/>
-      <c r="J144" s="26" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="145" spans="1:10" ht="126" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A145" s="32"/>
-      <c r="B145" s="33"/>
-      <c r="C145" s="32"/>
+      <c r="J144" s="22" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" ht="126" x14ac:dyDescent="0.2">
+      <c r="A145" s="26"/>
+      <c r="B145" s="27"/>
+      <c r="C145" s="26"/>
       <c r="D145" s="1" t="s">
         <v>11</v>
       </c>
@@ -5612,14 +5691,14 @@
         <v>14</v>
       </c>
       <c r="I145" s="1"/>
-      <c r="J145" s="26" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="146" spans="1:10" ht="56" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A146" s="12"/>
-      <c r="B146" s="25"/>
-      <c r="C146" s="12"/>
+      <c r="J145" s="22" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" ht="56" x14ac:dyDescent="0.2">
+      <c r="A146" s="10"/>
+      <c r="B146" s="21"/>
+      <c r="C146" s="10"/>
       <c r="D146" s="1" t="s">
         <v>11</v>
       </c>
@@ -5636,18 +5715,18 @@
       <c r="I146" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J146" s="26" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="147" spans="1:10" ht="70" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A147" s="7">
+      <c r="J146" s="22" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" ht="70" x14ac:dyDescent="0.2">
+      <c r="A147" s="29">
         <v>2014</v>
       </c>
-      <c r="B147" s="18" t="s">
+      <c r="B147" s="32" t="s">
         <v>195</v>
       </c>
-      <c r="C147" s="7" t="s">
+      <c r="C147" s="29" t="s">
         <v>56</v>
       </c>
       <c r="D147" s="1" t="s">
@@ -5666,14 +5745,14 @@
         <v>14</v>
       </c>
       <c r="I147" s="1"/>
-      <c r="J147" s="26" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="148" spans="1:10" ht="56" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A148" s="27"/>
-      <c r="B148" s="28"/>
-      <c r="C148" s="27"/>
+      <c r="J147" s="22" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" ht="56" x14ac:dyDescent="0.2">
+      <c r="A148" s="30"/>
+      <c r="B148" s="33"/>
+      <c r="C148" s="30"/>
       <c r="D148" s="1" t="s">
         <v>11</v>
       </c>
@@ -5690,14 +5769,14 @@
       <c r="I148" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J148" s="26" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="149" spans="1:10" ht="70" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A149" s="8"/>
-      <c r="B149" s="19"/>
-      <c r="C149" s="8"/>
+      <c r="J148" s="22" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" ht="70" x14ac:dyDescent="0.2">
+      <c r="A149" s="31"/>
+      <c r="B149" s="34"/>
+      <c r="C149" s="31"/>
       <c r="D149" s="1" t="s">
         <v>11</v>
       </c>
@@ -5714,11 +5793,11 @@
         <v>14</v>
       </c>
       <c r="I149" s="1"/>
-      <c r="J149" s="26" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="150" spans="1:10" ht="126" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J149" s="22" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" ht="126" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
         <v>2014</v>
       </c>
@@ -5734,21 +5813,21 @@
       <c r="E150" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="F150" s="9" t="s">
+      <c r="F150" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="G150" s="9" t="s">
+      <c r="G150" s="7" t="s">
         <v>309</v>
       </c>
       <c r="H150" s="1"/>
       <c r="I150" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J150" s="26" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="151" spans="1:10" ht="56" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J150" s="22" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" ht="56" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
         <v>2014</v>
       </c>
@@ -5774,11 +5853,11 @@
         <v>14</v>
       </c>
       <c r="I151" s="1"/>
-      <c r="J151" s="26" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="152" spans="1:10" ht="70" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J151" s="22" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" ht="70" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
         <v>2014</v>
       </c>
@@ -5804,18 +5883,18 @@
       <c r="I152" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J152" s="26" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="153" spans="1:10" ht="56" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A153" s="9">
+      <c r="J152" s="22" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" ht="56" x14ac:dyDescent="0.2">
+      <c r="A153" s="7">
         <v>2014</v>
       </c>
-      <c r="B153" s="10" t="s">
+      <c r="B153" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="C153" s="9" t="s">
+      <c r="C153" s="7" t="s">
         <v>28</v>
       </c>
       <c r="D153" s="1" t="s">
@@ -5834,14 +5913,14 @@
       <c r="I153" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J153" s="26" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="154" spans="1:10" ht="56" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A154" s="9"/>
-      <c r="B154" s="10"/>
-      <c r="C154" s="9"/>
+      <c r="J153" s="22" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" ht="56" x14ac:dyDescent="0.2">
+      <c r="A154" s="7"/>
+      <c r="B154" s="8"/>
+      <c r="C154" s="7"/>
       <c r="D154" s="1" t="s">
         <v>11</v>
       </c>
@@ -5858,14 +5937,14 @@
         <v>14</v>
       </c>
       <c r="I154" s="1"/>
-      <c r="J154" s="26" t="s">
+      <c r="J154" s="22" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="155" spans="1:10" ht="126" x14ac:dyDescent="0.2">
-      <c r="A155" s="9"/>
-      <c r="B155" s="10"/>
-      <c r="C155" s="9"/>
+      <c r="A155" s="7"/>
+      <c r="B155" s="8"/>
+      <c r="C155" s="7"/>
       <c r="D155" s="1" t="s">
         <v>11</v>
       </c>
@@ -5882,18 +5961,18 @@
         <v>14</v>
       </c>
       <c r="I155" s="1"/>
-      <c r="J155" s="26" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="156" spans="1:10" ht="56" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A156" s="9">
+      <c r="J155" s="22" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" ht="56" x14ac:dyDescent="0.2">
+      <c r="A156" s="7">
         <v>2014</v>
       </c>
-      <c r="B156" s="10" t="s">
+      <c r="B156" s="8" t="s">
         <v>203</v>
       </c>
-      <c r="C156" s="9" t="s">
+      <c r="C156" s="7" t="s">
         <v>37</v>
       </c>
       <c r="D156" s="1" t="s">
@@ -5912,14 +5991,14 @@
         <v>14</v>
       </c>
       <c r="I156" s="1"/>
-      <c r="J156" s="26" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="157" spans="1:10" ht="56" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A157" s="9"/>
-      <c r="B157" s="10"/>
-      <c r="C157" s="9"/>
+      <c r="J156" s="22" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" ht="56" x14ac:dyDescent="0.2">
+      <c r="A157" s="7"/>
+      <c r="B157" s="8"/>
+      <c r="C157" s="7"/>
       <c r="D157" s="1" t="s">
         <v>11</v>
       </c>
@@ -5936,14 +6015,14 @@
       <c r="I157" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J157" s="26" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="158" spans="1:10" ht="42" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A158" s="9"/>
-      <c r="B158" s="10"/>
-      <c r="C158" s="9"/>
+      <c r="J157" s="22" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" ht="42" x14ac:dyDescent="0.2">
+      <c r="A158" s="7"/>
+      <c r="B158" s="8"/>
+      <c r="C158" s="7"/>
       <c r="D158" s="1" t="s">
         <v>20</v>
       </c>
@@ -5960,11 +6039,11 @@
         <v>14</v>
       </c>
       <c r="I158" s="1"/>
-      <c r="J158" s="26" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="159" spans="1:10" ht="56" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J158" s="22" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" ht="56" x14ac:dyDescent="0.2">
       <c r="A159" s="4">
         <v>2015</v>
       </c>
@@ -5990,11 +6069,11 @@
       <c r="I159" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J159" s="26" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="160" spans="1:10" ht="154" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J159" s="22" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" ht="154" x14ac:dyDescent="0.2">
       <c r="A160" s="1">
         <v>2015</v>
       </c>
@@ -6020,18 +6099,18 @@
       <c r="I160" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J160" s="26" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="161" spans="1:10" ht="140" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A161" s="9">
+      <c r="J160" s="22" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" ht="140" x14ac:dyDescent="0.2">
+      <c r="A161" s="7">
         <v>2015</v>
       </c>
-      <c r="B161" s="10" t="s">
+      <c r="B161" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="C161" s="9" t="s">
+      <c r="C161" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D161" s="1" t="s">
@@ -6050,14 +6129,14 @@
       <c r="I161" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J161" s="26" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="162" spans="1:10" ht="140" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A162" s="9"/>
-      <c r="B162" s="10"/>
-      <c r="C162" s="9"/>
+      <c r="J161" s="22" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" ht="140" x14ac:dyDescent="0.2">
+      <c r="A162" s="7"/>
+      <c r="B162" s="8"/>
+      <c r="C162" s="7"/>
       <c r="D162" s="1" t="s">
         <v>11</v>
       </c>
@@ -6074,14 +6153,14 @@
         <v>14</v>
       </c>
       <c r="I162" s="1"/>
-      <c r="J162" s="26" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="163" spans="1:10" ht="168" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A163" s="9"/>
-      <c r="B163" s="10"/>
-      <c r="C163" s="9"/>
+      <c r="J162" s="22" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" ht="168" x14ac:dyDescent="0.2">
+      <c r="A163" s="7"/>
+      <c r="B163" s="8"/>
+      <c r="C163" s="7"/>
       <c r="D163" s="1" t="s">
         <v>11</v>
       </c>
@@ -6098,18 +6177,18 @@
       <c r="I163" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J163" s="26" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="164" spans="1:10" ht="70" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A164" s="9">
+      <c r="J163" s="22" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10" ht="70" x14ac:dyDescent="0.2">
+      <c r="A164" s="7">
         <v>2015</v>
       </c>
-      <c r="B164" s="10" t="s">
+      <c r="B164" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="C164" s="9" t="s">
+      <c r="C164" s="7" t="s">
         <v>84</v>
       </c>
       <c r="D164" s="1" t="s">
@@ -6128,14 +6207,14 @@
       <c r="I164" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J164" s="26" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="165" spans="1:10" ht="98" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A165" s="9"/>
-      <c r="B165" s="10"/>
-      <c r="C165" s="9"/>
+      <c r="J164" s="22" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10" ht="98" x14ac:dyDescent="0.2">
+      <c r="A165" s="7"/>
+      <c r="B165" s="8"/>
+      <c r="C165" s="7"/>
       <c r="D165" s="1" t="s">
         <v>20</v>
       </c>
@@ -6152,11 +6231,11 @@
         <v>14</v>
       </c>
       <c r="I165" s="1"/>
-      <c r="J165" s="26" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="166" spans="1:10" ht="56" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J165" s="22" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" ht="56" x14ac:dyDescent="0.2">
       <c r="A166" s="1">
         <v>2015</v>
       </c>
@@ -6182,11 +6261,11 @@
       <c r="I166" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J166" s="26" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="167" spans="1:10" ht="224" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J166" s="22" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10" ht="224" x14ac:dyDescent="0.2">
       <c r="A167" s="1">
         <v>2015</v>
       </c>
@@ -6212,18 +6291,18 @@
         <v>14</v>
       </c>
       <c r="I167" s="1"/>
-      <c r="J167" s="26" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="168" spans="1:10" ht="70" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A168" s="9">
+      <c r="J167" s="22" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10" ht="70" x14ac:dyDescent="0.2">
+      <c r="A168" s="7">
         <v>2015</v>
       </c>
-      <c r="B168" s="10" t="s">
+      <c r="B168" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="C168" s="9" t="s">
+      <c r="C168" s="7" t="s">
         <v>28</v>
       </c>
       <c r="D168" s="1" t="s">
@@ -6242,14 +6321,14 @@
       <c r="I168" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J168" s="26" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="169" spans="1:10" ht="154" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A169" s="9"/>
-      <c r="B169" s="10"/>
-      <c r="C169" s="9"/>
+      <c r="J168" s="22" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10" ht="154" x14ac:dyDescent="0.2">
+      <c r="A169" s="7"/>
+      <c r="B169" s="8"/>
+      <c r="C169" s="7"/>
       <c r="D169" s="1" t="s">
         <v>11</v>
       </c>
@@ -6266,11 +6345,11 @@
         <v>14</v>
       </c>
       <c r="I169" s="1"/>
-      <c r="J169" s="26" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="170" spans="1:10" ht="140" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J169" s="22" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10" ht="140" x14ac:dyDescent="0.2">
       <c r="A170" s="1">
         <v>2015</v>
       </c>
@@ -6296,11 +6375,11 @@
         <v>14</v>
       </c>
       <c r="I170" s="1"/>
-      <c r="J170" s="26" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="171" spans="1:10" ht="70" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J170" s="22" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10" ht="70" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
         <v>2016</v>
       </c>
@@ -6326,11 +6405,11 @@
       <c r="I171" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J171" s="26" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="172" spans="1:10" ht="70" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J171" s="22" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10" ht="70" x14ac:dyDescent="0.2">
       <c r="A172" s="1">
         <v>2016</v>
       </c>
@@ -6356,11 +6435,11 @@
         <v>14</v>
       </c>
       <c r="I172" s="1"/>
-      <c r="J172" s="26" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="173" spans="1:10" ht="409.6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J172" s="22" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A173" s="1">
         <v>2016</v>
       </c>
@@ -6386,18 +6465,18 @@
         <v>14</v>
       </c>
       <c r="I173" s="1"/>
-      <c r="J173" s="26" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="174" spans="1:10" ht="56" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A174" s="11">
+      <c r="J173" s="22" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10" ht="56" x14ac:dyDescent="0.2">
+      <c r="A174" s="9">
         <v>2016</v>
       </c>
-      <c r="B174" s="24" t="s">
+      <c r="B174" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="C174" s="11" t="s">
+      <c r="C174" s="9" t="s">
         <v>10</v>
       </c>
       <c r="D174" s="1" t="s">
@@ -6416,14 +6495,14 @@
         <v>14</v>
       </c>
       <c r="I174" s="1"/>
-      <c r="J174" s="26" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="175" spans="1:10" ht="126" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A175" s="12"/>
-      <c r="B175" s="25"/>
-      <c r="C175" s="12"/>
+      <c r="J174" s="22" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10" ht="126" x14ac:dyDescent="0.2">
+      <c r="A175" s="10"/>
+      <c r="B175" s="21"/>
+      <c r="C175" s="10"/>
       <c r="D175" s="1" t="s">
         <v>20</v>
       </c>
@@ -6440,11 +6519,11 @@
       <c r="I175" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J175" s="26" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="176" spans="1:10" ht="140" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J175" s="22" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10" ht="140" x14ac:dyDescent="0.2">
       <c r="A176" s="1">
         <v>2016</v>
       </c>
@@ -6460,28 +6539,28 @@
       <c r="E176" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F176" s="9" t="s">
+      <c r="F176" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="G176" s="9" t="s">
+      <c r="G176" s="7" t="s">
         <v>309</v>
       </c>
       <c r="H176" s="1"/>
       <c r="I176" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J176" s="26" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="177" spans="1:10" ht="56" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A177" s="9">
+      <c r="J176" s="22" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10" ht="56" x14ac:dyDescent="0.2">
+      <c r="A177" s="7">
         <v>2016</v>
       </c>
-      <c r="B177" s="10" t="s">
+      <c r="B177" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="C177" s="9" t="s">
+      <c r="C177" s="7" t="s">
         <v>19</v>
       </c>
       <c r="D177" s="1" t="s">
@@ -6500,14 +6579,14 @@
         <v>14</v>
       </c>
       <c r="I177" s="1"/>
-      <c r="J177" s="26" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="178" spans="1:10" ht="112" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A178" s="9"/>
-      <c r="B178" s="10"/>
-      <c r="C178" s="9"/>
+      <c r="J177" s="22" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10" ht="112" x14ac:dyDescent="0.2">
+      <c r="A178" s="7"/>
+      <c r="B178" s="8"/>
+      <c r="C178" s="7"/>
       <c r="D178" s="1" t="s">
         <v>11</v>
       </c>
@@ -6524,14 +6603,14 @@
       <c r="I178" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J178" s="26" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="179" spans="1:10" ht="56" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A179" s="9"/>
-      <c r="B179" s="10"/>
-      <c r="C179" s="9"/>
+      <c r="J178" s="22" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10" ht="56" x14ac:dyDescent="0.2">
+      <c r="A179" s="7"/>
+      <c r="B179" s="8"/>
+      <c r="C179" s="7"/>
       <c r="D179" s="1" t="s">
         <v>11</v>
       </c>
@@ -6548,14 +6627,14 @@
       <c r="I179" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J179" s="26" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="180" spans="1:10" ht="182" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A180" s="9"/>
-      <c r="B180" s="10"/>
-      <c r="C180" s="9"/>
+      <c r="J179" s="22" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10" ht="182" x14ac:dyDescent="0.2">
+      <c r="A180" s="7"/>
+      <c r="B180" s="8"/>
+      <c r="C180" s="7"/>
       <c r="D180" s="1" t="s">
         <v>11</v>
       </c>
@@ -6572,14 +6651,14 @@
       <c r="I180" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J180" s="26" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="181" spans="1:10" ht="56" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A181" s="9"/>
-      <c r="B181" s="10"/>
-      <c r="C181" s="9"/>
+      <c r="J180" s="22" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10" ht="56" x14ac:dyDescent="0.2">
+      <c r="A181" s="7"/>
+      <c r="B181" s="8"/>
+      <c r="C181" s="7"/>
       <c r="D181" s="1" t="s">
         <v>20</v>
       </c>
@@ -6596,14 +6675,14 @@
       <c r="I181" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J181" s="26" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="182" spans="1:10" ht="126" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A182" s="9"/>
-      <c r="B182" s="10"/>
-      <c r="C182" s="9"/>
+      <c r="J181" s="22" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10" ht="126" x14ac:dyDescent="0.2">
+      <c r="A182" s="7"/>
+      <c r="B182" s="8"/>
+      <c r="C182" s="7"/>
       <c r="D182" s="1" t="s">
         <v>11</v>
       </c>
@@ -6620,18 +6699,18 @@
       <c r="I182" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J182" s="26" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="183" spans="1:10" ht="182" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A183" s="11">
+      <c r="J182" s="22" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10" ht="182" x14ac:dyDescent="0.2">
+      <c r="A183" s="9">
         <v>2016</v>
       </c>
-      <c r="B183" s="24" t="s">
+      <c r="B183" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="C183" s="11" t="s">
+      <c r="C183" s="9" t="s">
         <v>56</v>
       </c>
       <c r="D183" s="1" t="s">
@@ -6650,14 +6729,14 @@
         <v>14</v>
       </c>
       <c r="I183" s="1"/>
-      <c r="J183" s="26" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="184" spans="1:10" ht="154" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A184" s="12"/>
-      <c r="B184" s="25"/>
-      <c r="C184" s="12"/>
+      <c r="J183" s="22" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10" ht="154" x14ac:dyDescent="0.2">
+      <c r="A184" s="10"/>
+      <c r="B184" s="21"/>
+      <c r="C184" s="10"/>
       <c r="D184" s="1" t="s">
         <v>20</v>
       </c>
@@ -6674,11 +6753,11 @@
         <v>14</v>
       </c>
       <c r="I184" s="1"/>
-      <c r="J184" s="26" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="185" spans="1:10" ht="56" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J184" s="22" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10" ht="56" x14ac:dyDescent="0.2">
       <c r="A185" s="1">
         <v>2016</v>
       </c>
@@ -6704,18 +6783,18 @@
       <c r="I185" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J185" s="26" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="186" spans="1:10" ht="98" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A186" s="11">
+      <c r="J185" s="22" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10" ht="98" x14ac:dyDescent="0.2">
+      <c r="A186" s="9">
         <v>2016</v>
       </c>
-      <c r="B186" s="24" t="s">
+      <c r="B186" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="C186" s="11" t="s">
+      <c r="C186" s="9" t="s">
         <v>15</v>
       </c>
       <c r="D186" s="1" t="s">
@@ -6734,14 +6813,14 @@
       <c r="I186" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J186" s="26" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="187" spans="1:10" ht="70" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A187" s="32"/>
-      <c r="B187" s="33"/>
-      <c r="C187" s="32"/>
+      <c r="J186" s="22" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10" ht="70" x14ac:dyDescent="0.2">
+      <c r="A187" s="26"/>
+      <c r="B187" s="27"/>
+      <c r="C187" s="26"/>
       <c r="D187" s="1" t="s">
         <v>11</v>
       </c>
@@ -6758,14 +6837,14 @@
       <c r="I187" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J187" s="26" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="188" spans="1:10" ht="154" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A188" s="32"/>
-      <c r="B188" s="33"/>
-      <c r="C188" s="32"/>
+      <c r="J187" s="22" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10" ht="154" x14ac:dyDescent="0.2">
+      <c r="A188" s="26"/>
+      <c r="B188" s="27"/>
+      <c r="C188" s="26"/>
       <c r="D188" s="1" t="s">
         <v>11</v>
       </c>
@@ -6782,14 +6861,14 @@
       <c r="I188" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J188" s="26" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="189" spans="1:10" ht="98" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A189" s="12"/>
-      <c r="B189" s="25"/>
-      <c r="C189" s="12"/>
+      <c r="J188" s="22" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10" ht="98" x14ac:dyDescent="0.2">
+      <c r="A189" s="10"/>
+      <c r="B189" s="21"/>
+      <c r="C189" s="10"/>
       <c r="D189" s="1" t="s">
         <v>20</v>
       </c>
@@ -6806,11 +6885,11 @@
         <v>14</v>
       </c>
       <c r="I189" s="1"/>
-      <c r="J189" s="26" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="190" spans="1:10" ht="126" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J189" s="22" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10" ht="126" x14ac:dyDescent="0.2">
       <c r="A190" s="1">
         <v>2016</v>
       </c>
@@ -6836,11 +6915,11 @@
       <c r="I190" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J190" s="26" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="191" spans="1:10" ht="112" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J190" s="22" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10" ht="112" x14ac:dyDescent="0.2">
       <c r="A191" s="1">
         <v>2016</v>
       </c>
@@ -6866,11 +6945,11 @@
       <c r="I191" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J191" s="26" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="192" spans="1:10" ht="56" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J191" s="22" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10" ht="56" x14ac:dyDescent="0.2">
       <c r="A192" s="1">
         <v>2016</v>
       </c>
@@ -6896,11 +6975,11 @@
         <v>14</v>
       </c>
       <c r="I192" s="1"/>
-      <c r="J192" s="26" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="193" spans="1:10" ht="210" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J192" s="22" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10" ht="210" x14ac:dyDescent="0.2">
       <c r="A193" s="1">
         <v>2017</v>
       </c>
@@ -6926,18 +7005,18 @@
       <c r="I193" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J193" s="26" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="194" spans="1:10" ht="154" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A194" s="11">
+      <c r="J193" s="22" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10" ht="154" x14ac:dyDescent="0.2">
+      <c r="A194" s="9">
         <v>2017</v>
       </c>
-      <c r="B194" s="24" t="s">
+      <c r="B194" s="20" t="s">
         <v>119</v>
       </c>
-      <c r="C194" s="11" t="s">
+      <c r="C194" s="9" t="s">
         <v>32</v>
       </c>
       <c r="D194" s="1" t="s">
@@ -6956,14 +7035,14 @@
       <c r="I194" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J194" s="26" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="195" spans="1:10" ht="154" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A195" s="12"/>
-      <c r="B195" s="25"/>
-      <c r="C195" s="12"/>
+      <c r="J194" s="22" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10" ht="154" x14ac:dyDescent="0.2">
+      <c r="A195" s="10"/>
+      <c r="B195" s="21"/>
+      <c r="C195" s="10"/>
       <c r="D195" s="1" t="s">
         <v>11</v>
       </c>
@@ -6980,18 +7059,18 @@
         <v>14</v>
       </c>
       <c r="I195" s="1"/>
-      <c r="J195" s="26" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="196" spans="1:10" ht="84" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A196" s="9">
+      <c r="J195" s="22" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10" ht="84" x14ac:dyDescent="0.2">
+      <c r="A196" s="7">
         <v>2017</v>
       </c>
-      <c r="B196" s="10" t="s">
+      <c r="B196" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="C196" s="9" t="s">
+      <c r="C196" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D196" s="1" t="s">
@@ -7010,14 +7089,14 @@
         <v>14</v>
       </c>
       <c r="I196" s="1"/>
-      <c r="J196" s="26" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="197" spans="1:10" ht="70" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A197" s="9"/>
-      <c r="B197" s="10"/>
-      <c r="C197" s="9"/>
+      <c r="J196" s="22" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="197" spans="1:10" ht="70" x14ac:dyDescent="0.2">
+      <c r="A197" s="7"/>
+      <c r="B197" s="8"/>
+      <c r="C197" s="7"/>
       <c r="D197" s="1" t="s">
         <v>11</v>
       </c>
@@ -7034,14 +7113,14 @@
       <c r="I197" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J197" s="26" t="s">
+      <c r="J197" s="22" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="198" spans="1:10" ht="98" x14ac:dyDescent="0.2">
-      <c r="A198" s="9"/>
-      <c r="B198" s="10"/>
-      <c r="C198" s="9"/>
+      <c r="A198" s="7"/>
+      <c r="B198" s="8"/>
+      <c r="C198" s="7"/>
       <c r="D198" s="1" t="s">
         <v>11</v>
       </c>
@@ -7058,14 +7137,14 @@
       <c r="I198" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J198" s="26" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="199" spans="1:10" ht="84" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A199" s="9"/>
-      <c r="B199" s="10"/>
-      <c r="C199" s="9"/>
+      <c r="J198" s="22" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="199" spans="1:10" ht="84" x14ac:dyDescent="0.2">
+      <c r="A199" s="7"/>
+      <c r="B199" s="8"/>
+      <c r="C199" s="7"/>
       <c r="D199" s="1" t="s">
         <v>11</v>
       </c>
@@ -7082,11 +7161,11 @@
       <c r="I199" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J199" s="26" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="200" spans="1:10" ht="56" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J199" s="22" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="200" spans="1:10" ht="56" x14ac:dyDescent="0.2">
       <c r="A200" s="1">
         <v>2017</v>
       </c>
@@ -7112,11 +7191,11 @@
       <c r="I200" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J200" s="26" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="201" spans="1:10" ht="168" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J200" s="22" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="201" spans="1:10" ht="168" x14ac:dyDescent="0.2">
       <c r="A201" s="1">
         <v>2017</v>
       </c>
@@ -7142,18 +7221,18 @@
       <c r="I201" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J201" s="26" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="202" spans="1:10" ht="210" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A202" s="11">
+      <c r="J201" s="22" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="202" spans="1:10" ht="210" x14ac:dyDescent="0.2">
+      <c r="A202" s="9">
         <v>2017</v>
       </c>
-      <c r="B202" s="24" t="s">
+      <c r="B202" s="20" t="s">
         <v>119</v>
       </c>
-      <c r="C202" s="11" t="s">
+      <c r="C202" s="9" t="s">
         <v>19</v>
       </c>
       <c r="D202" s="1" t="s">
@@ -7172,14 +7251,14 @@
       <c r="I202" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J202" s="26" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="203" spans="1:10" ht="252" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A203" s="32"/>
-      <c r="B203" s="33"/>
-      <c r="C203" s="32"/>
+      <c r="J202" s="22" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="203" spans="1:10" ht="252" x14ac:dyDescent="0.2">
+      <c r="A203" s="26"/>
+      <c r="B203" s="27"/>
+      <c r="C203" s="26"/>
       <c r="D203" s="1" t="s">
         <v>20</v>
       </c>
@@ -7196,14 +7275,14 @@
         <v>14</v>
       </c>
       <c r="I203" s="1"/>
-      <c r="J203" s="26" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="204" spans="1:10" ht="252" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A204" s="32"/>
-      <c r="B204" s="33"/>
-      <c r="C204" s="32"/>
+      <c r="J203" s="22" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="204" spans="1:10" ht="252" x14ac:dyDescent="0.2">
+      <c r="A204" s="26"/>
+      <c r="B204" s="27"/>
+      <c r="C204" s="26"/>
       <c r="D204" s="1" t="s">
         <v>11</v>
       </c>
@@ -7220,14 +7299,14 @@
       <c r="I204" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J204" s="26" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="205" spans="1:10" ht="336" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A205" s="32"/>
-      <c r="B205" s="33"/>
-      <c r="C205" s="32"/>
+      <c r="J204" s="22" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="205" spans="1:10" ht="336" x14ac:dyDescent="0.2">
+      <c r="A205" s="26"/>
+      <c r="B205" s="27"/>
+      <c r="C205" s="26"/>
       <c r="D205" s="1" t="s">
         <v>20</v>
       </c>
@@ -7244,14 +7323,14 @@
       <c r="I205" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J205" s="26" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="206" spans="1:10" ht="70" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A206" s="32"/>
-      <c r="B206" s="33"/>
-      <c r="C206" s="32"/>
+      <c r="J205" s="22" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="206" spans="1:10" ht="70" x14ac:dyDescent="0.2">
+      <c r="A206" s="26"/>
+      <c r="B206" s="27"/>
+      <c r="C206" s="26"/>
       <c r="D206" s="1" t="s">
         <v>11</v>
       </c>
@@ -7268,14 +7347,14 @@
         <v>14</v>
       </c>
       <c r="I206" s="1"/>
-      <c r="J206" s="26" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="207" spans="1:10" ht="56" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A207" s="32"/>
-      <c r="B207" s="33"/>
-      <c r="C207" s="32"/>
+      <c r="J206" s="22" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="207" spans="1:10" ht="56" x14ac:dyDescent="0.2">
+      <c r="A207" s="26"/>
+      <c r="B207" s="27"/>
+      <c r="C207" s="26"/>
       <c r="D207" s="1" t="s">
         <v>11</v>
       </c>
@@ -7292,14 +7371,14 @@
       <c r="I207" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J207" s="26" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="208" spans="1:10" ht="70" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A208" s="32"/>
-      <c r="B208" s="33"/>
-      <c r="C208" s="32"/>
+      <c r="J207" s="22" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="208" spans="1:10" ht="70" x14ac:dyDescent="0.2">
+      <c r="A208" s="26"/>
+      <c r="B208" s="27"/>
+      <c r="C208" s="26"/>
       <c r="D208" s="1" t="s">
         <v>11</v>
       </c>
@@ -7316,14 +7395,14 @@
       <c r="I208" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J208" s="26" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="209" spans="1:10" ht="154" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A209" s="12"/>
-      <c r="B209" s="25"/>
-      <c r="C209" s="12"/>
+      <c r="J208" s="22" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="209" spans="1:10" ht="154" x14ac:dyDescent="0.2">
+      <c r="A209" s="10"/>
+      <c r="B209" s="21"/>
+      <c r="C209" s="10"/>
       <c r="D209" s="1" t="s">
         <v>11</v>
       </c>
@@ -7340,11 +7419,11 @@
         <v>14</v>
       </c>
       <c r="I209" s="1"/>
-      <c r="J209" s="26" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="210" spans="1:10" ht="409.6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J209" s="22" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="210" spans="1:10" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A210" s="1">
         <v>2017</v>
       </c>
@@ -7370,18 +7449,18 @@
         <v>14</v>
       </c>
       <c r="I210" s="1"/>
-      <c r="J210" s="26" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="211" spans="1:10" ht="196" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A211" s="9">
+      <c r="J210" s="22" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="211" spans="1:10" ht="196" x14ac:dyDescent="0.2">
+      <c r="A211" s="7">
         <v>2017</v>
       </c>
-      <c r="B211" s="10" t="s">
+      <c r="B211" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="C211" s="9" t="s">
+      <c r="C211" s="7" t="s">
         <v>52</v>
       </c>
       <c r="D211" s="1" t="s">
@@ -7400,14 +7479,14 @@
         <v>14</v>
       </c>
       <c r="I211" s="1"/>
-      <c r="J211" s="26" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="212" spans="1:10" ht="56" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A212" s="9"/>
-      <c r="B212" s="10"/>
-      <c r="C212" s="9"/>
+      <c r="J211" s="22" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="212" spans="1:10" ht="56" x14ac:dyDescent="0.2">
+      <c r="A212" s="7"/>
+      <c r="B212" s="8"/>
+      <c r="C212" s="7"/>
       <c r="D212" s="1" t="s">
         <v>11</v>
       </c>
@@ -7424,14 +7503,14 @@
         <v>14</v>
       </c>
       <c r="I212" s="1"/>
-      <c r="J212" s="26" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="213" spans="1:10" ht="154" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A213" s="9"/>
-      <c r="B213" s="10"/>
-      <c r="C213" s="9"/>
+      <c r="J212" s="22" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="213" spans="1:10" ht="154" x14ac:dyDescent="0.2">
+      <c r="A213" s="7"/>
+      <c r="B213" s="8"/>
+      <c r="C213" s="7"/>
       <c r="D213" s="1" t="s">
         <v>11</v>
       </c>
@@ -7448,18 +7527,18 @@
         <v>14</v>
       </c>
       <c r="I213" s="1"/>
-      <c r="J213" s="26" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="214" spans="1:10" ht="70" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A214" s="9">
+      <c r="J213" s="22" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="214" spans="1:10" ht="70" x14ac:dyDescent="0.2">
+      <c r="A214" s="7">
         <v>2017</v>
       </c>
-      <c r="B214" s="10" t="s">
+      <c r="B214" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="C214" s="9" t="s">
+      <c r="C214" s="7" t="s">
         <v>37</v>
       </c>
       <c r="D214" s="1" t="s">
@@ -7478,14 +7557,14 @@
         <v>14</v>
       </c>
       <c r="I214" s="1"/>
-      <c r="J214" s="26" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="215" spans="1:10" ht="140" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A215" s="9"/>
-      <c r="B215" s="10"/>
-      <c r="C215" s="9"/>
+      <c r="J214" s="22" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="215" spans="1:10" ht="140" x14ac:dyDescent="0.2">
+      <c r="A215" s="7"/>
+      <c r="B215" s="8"/>
+      <c r="C215" s="7"/>
       <c r="D215" s="1" t="s">
         <v>11</v>
       </c>
@@ -7502,14 +7581,14 @@
       <c r="I215" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J215" s="26" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="216" spans="1:10" ht="140" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A216" s="9"/>
-      <c r="B216" s="10"/>
-      <c r="C216" s="9"/>
+      <c r="J215" s="22" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="216" spans="1:10" ht="140" x14ac:dyDescent="0.2">
+      <c r="A216" s="7"/>
+      <c r="B216" s="8"/>
+      <c r="C216" s="7"/>
       <c r="D216" s="1" t="s">
         <v>11</v>
       </c>
@@ -7526,14 +7605,14 @@
         <v>14</v>
       </c>
       <c r="I216" s="1"/>
-      <c r="J216" s="26" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="217" spans="1:10" ht="70" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A217" s="9"/>
-      <c r="B217" s="10"/>
-      <c r="C217" s="9"/>
+      <c r="J216" s="22" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="217" spans="1:10" ht="70" x14ac:dyDescent="0.2">
+      <c r="A217" s="7"/>
+      <c r="B217" s="8"/>
+      <c r="C217" s="7"/>
       <c r="D217" s="1" t="s">
         <v>11</v>
       </c>
@@ -7550,18 +7629,18 @@
         <v>14</v>
       </c>
       <c r="I217" s="1"/>
-      <c r="J217" s="26" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="218" spans="1:10" ht="56" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A218" s="11">
+      <c r="J217" s="22" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="218" spans="1:10" ht="56" x14ac:dyDescent="0.2">
+      <c r="A218" s="9">
         <v>2017</v>
       </c>
-      <c r="B218" s="24" t="s">
+      <c r="B218" s="20" t="s">
         <v>119</v>
       </c>
-      <c r="C218" s="11" t="s">
+      <c r="C218" s="9" t="s">
         <v>45</v>
       </c>
       <c r="D218" s="1" t="s">
@@ -7580,14 +7659,14 @@
       <c r="I218" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J218" s="26" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="219" spans="1:10" ht="56" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A219" s="12"/>
-      <c r="B219" s="25"/>
-      <c r="C219" s="12"/>
+      <c r="J218" s="22" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="219" spans="1:10" ht="56" x14ac:dyDescent="0.2">
+      <c r="A219" s="10"/>
+      <c r="B219" s="21"/>
+      <c r="C219" s="10"/>
       <c r="D219" s="1" t="s">
         <v>20</v>
       </c>
@@ -7604,11 +7683,11 @@
         <v>14</v>
       </c>
       <c r="I219" s="1"/>
-      <c r="J219" s="26" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="220" spans="1:10" ht="210" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J219" s="22" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="220" spans="1:10" ht="210" x14ac:dyDescent="0.2">
       <c r="A220" s="1">
         <v>2017</v>
       </c>
@@ -7634,11 +7713,11 @@
         <v>14</v>
       </c>
       <c r="I220" s="1"/>
-      <c r="J220" s="26" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="221" spans="1:10" ht="238" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J220" s="22" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="221" spans="1:10" ht="238" x14ac:dyDescent="0.2">
       <c r="A221" s="1">
         <v>2017</v>
       </c>
@@ -7664,15 +7743,15 @@
       <c r="I221" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J221" s="26" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="222" spans="1:10" ht="140" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A222" s="21">
+      <c r="J221" s="22" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="222" spans="1:10" ht="140" x14ac:dyDescent="0.2">
+      <c r="A222" s="17">
         <v>2018</v>
       </c>
-      <c r="B222" s="34" t="s">
+      <c r="B222" s="28" t="s">
         <v>264</v>
       </c>
       <c r="C222" s="4" t="s">
@@ -7694,13 +7773,13 @@
         <v>14</v>
       </c>
       <c r="I222" s="4"/>
-      <c r="J222" s="26" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="223" spans="1:10" ht="154" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A223" s="21"/>
-      <c r="B223" s="34"/>
+      <c r="J222" s="22" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="223" spans="1:10" ht="154" x14ac:dyDescent="0.2">
+      <c r="A223" s="17"/>
+      <c r="B223" s="28"/>
       <c r="C223" s="4" t="s">
         <v>56</v>
       </c>
@@ -7720,11 +7799,11 @@
         <v>14</v>
       </c>
       <c r="I223" s="4"/>
-      <c r="J223" s="26" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="224" spans="1:10" ht="84" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J223" s="22" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="224" spans="1:10" ht="84" x14ac:dyDescent="0.2">
       <c r="A224" s="1">
         <v>2018</v>
       </c>
@@ -7750,18 +7829,18 @@
         <v>14</v>
       </c>
       <c r="I224" s="1"/>
-      <c r="J224" s="26" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="225" spans="1:10" ht="294" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A225" s="11">
+      <c r="J224" s="22" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="225" spans="1:10" ht="294" x14ac:dyDescent="0.2">
+      <c r="A225" s="9">
         <v>2018</v>
       </c>
-      <c r="B225" s="24" t="s">
+      <c r="B225" s="20" t="s">
         <v>268</v>
       </c>
-      <c r="C225" s="11" t="s">
+      <c r="C225" s="9" t="s">
         <v>32</v>
       </c>
       <c r="D225" s="1" t="s">
@@ -7780,14 +7859,14 @@
       <c r="I225" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J225" s="26" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="226" spans="1:10" ht="140" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A226" s="32"/>
-      <c r="B226" s="33"/>
-      <c r="C226" s="32"/>
+      <c r="J225" s="22" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="226" spans="1:10" ht="140" x14ac:dyDescent="0.2">
+      <c r="A226" s="26"/>
+      <c r="B226" s="27"/>
+      <c r="C226" s="26"/>
       <c r="D226" s="1" t="s">
         <v>11</v>
       </c>
@@ -7804,14 +7883,14 @@
       <c r="I226" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J226" s="26" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="227" spans="1:10" ht="182" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A227" s="32"/>
-      <c r="B227" s="33"/>
-      <c r="C227" s="32"/>
+      <c r="J226" s="22" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="227" spans="1:10" ht="182" x14ac:dyDescent="0.2">
+      <c r="A227" s="26"/>
+      <c r="B227" s="27"/>
+      <c r="C227" s="26"/>
       <c r="D227" s="1" t="s">
         <v>11</v>
       </c>
@@ -7828,14 +7907,14 @@
       <c r="I227" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J227" s="26" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="228" spans="1:10" ht="140" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A228" s="12"/>
-      <c r="B228" s="25"/>
-      <c r="C228" s="12"/>
+      <c r="J227" s="22" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="228" spans="1:10" ht="140" x14ac:dyDescent="0.2">
+      <c r="A228" s="10"/>
+      <c r="B228" s="21"/>
+      <c r="C228" s="10"/>
       <c r="D228" s="1" t="s">
         <v>11</v>
       </c>
@@ -7852,11 +7931,11 @@
         <v>14</v>
       </c>
       <c r="I228" s="1"/>
-      <c r="J228" s="26" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="229" spans="1:10" ht="140" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J228" s="22" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="229" spans="1:10" ht="140" x14ac:dyDescent="0.2">
       <c r="A229" s="1">
         <v>2018</v>
       </c>
@@ -7882,18 +7961,18 @@
       <c r="I229" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J229" s="26" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="230" spans="1:10" ht="42" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A230" s="9">
+      <c r="J229" s="22" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="230" spans="1:10" ht="42" x14ac:dyDescent="0.2">
+      <c r="A230" s="7">
         <v>2018</v>
       </c>
-      <c r="B230" s="10" t="s">
+      <c r="B230" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="C230" s="9" t="s">
+      <c r="C230" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D230" s="1" t="s">
@@ -7912,14 +7991,14 @@
       <c r="I230" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J230" s="26" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="231" spans="1:10" ht="224" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A231" s="9"/>
-      <c r="B231" s="10"/>
-      <c r="C231" s="9"/>
+      <c r="J230" s="22" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="231" spans="1:10" ht="224" x14ac:dyDescent="0.2">
+      <c r="A231" s="7"/>
+      <c r="B231" s="8"/>
+      <c r="C231" s="7"/>
       <c r="D231" s="1" t="s">
         <v>11</v>
       </c>
@@ -7936,18 +8015,18 @@
       <c r="I231" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J231" s="26" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="232" spans="1:10" ht="56" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A232" s="9">
+      <c r="J231" s="22" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="232" spans="1:10" ht="56" x14ac:dyDescent="0.2">
+      <c r="A232" s="7">
         <v>2018</v>
       </c>
-      <c r="B232" s="10" t="s">
+      <c r="B232" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="C232" s="9" t="s">
+      <c r="C232" s="7" t="s">
         <v>84</v>
       </c>
       <c r="D232" s="1" t="s">
@@ -7956,148 +8035,148 @@
       <c r="E232" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="F232" s="9" t="s">
+      <c r="F232" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="G232" s="9" t="s">
+      <c r="G232" s="7" t="s">
         <v>305</v>
       </c>
       <c r="H232" s="1" t="s">
         <v>14</v>
       </c>
       <c r="I232" s="1"/>
-      <c r="J232" s="26" t="s">
+      <c r="J232" s="22" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="233" spans="1:10" ht="56" x14ac:dyDescent="0.2">
-      <c r="A233" s="9"/>
-      <c r="B233" s="10"/>
-      <c r="C233" s="9"/>
+      <c r="A233" s="7"/>
+      <c r="B233" s="8"/>
+      <c r="C233" s="7"/>
       <c r="D233" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E233" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="F233" s="9" t="s">
+      <c r="F233" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="G233" s="9" t="s">
+      <c r="G233" s="7" t="s">
         <v>305</v>
       </c>
       <c r="H233" s="1"/>
       <c r="I233" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J233" s="26" t="s">
+      <c r="J233" s="22" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="234" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A234" s="9"/>
-      <c r="B234" s="10"/>
-      <c r="C234" s="9"/>
+      <c r="A234" s="7"/>
+      <c r="B234" s="8"/>
+      <c r="C234" s="7"/>
       <c r="D234" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E234" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F234" s="29" t="s">
+      <c r="F234" s="23" t="s">
         <v>278</v>
       </c>
-      <c r="G234" s="29" t="s">
+      <c r="G234" s="23" t="s">
         <v>305</v>
       </c>
       <c r="H234" s="1" t="s">
         <v>14</v>
       </c>
       <c r="I234" s="1"/>
-      <c r="J234" s="26" t="s">
+      <c r="J234" s="22" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="235" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A235" s="9"/>
-      <c r="B235" s="10"/>
-      <c r="C235" s="9"/>
+      <c r="A235" s="7"/>
+      <c r="B235" s="8"/>
+      <c r="C235" s="7"/>
       <c r="D235" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E235" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F235" s="29" t="s">
+      <c r="F235" s="23" t="s">
         <v>279</v>
       </c>
-      <c r="G235" s="29" t="s">
+      <c r="G235" s="23" t="s">
         <v>305</v>
       </c>
       <c r="H235" s="1"/>
       <c r="I235" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J235" s="26" t="s">
+      <c r="J235" s="22" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="236" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A236" s="9"/>
-      <c r="B236" s="10"/>
-      <c r="C236" s="9"/>
+      <c r="A236" s="7"/>
+      <c r="B236" s="8"/>
+      <c r="C236" s="7"/>
       <c r="D236" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E236" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="F236" s="29" t="s">
+      <c r="F236" s="23" t="s">
         <v>277</v>
       </c>
-      <c r="G236" s="29" t="s">
+      <c r="G236" s="23" t="s">
         <v>305</v>
       </c>
       <c r="H236" s="1" t="s">
         <v>14</v>
       </c>
       <c r="I236" s="1"/>
-      <c r="J236" s="26" t="s">
+      <c r="J236" s="22" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="237" spans="1:10" ht="56" x14ac:dyDescent="0.2">
-      <c r="A237" s="9"/>
-      <c r="B237" s="10"/>
-      <c r="C237" s="9"/>
+      <c r="A237" s="7"/>
+      <c r="B237" s="8"/>
+      <c r="C237" s="7"/>
       <c r="D237" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E237" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F237" s="30" t="s">
+      <c r="F237" s="24" t="s">
         <v>277</v>
       </c>
-      <c r="G237" s="30" t="s">
+      <c r="G237" s="24" t="s">
         <v>305</v>
       </c>
       <c r="H237" s="1"/>
       <c r="I237" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J237" s="26" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="238" spans="1:10" ht="56" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A238" s="9">
+      <c r="J237" s="22" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="238" spans="1:10" ht="56" x14ac:dyDescent="0.2">
+      <c r="A238" s="7">
         <v>2018</v>
       </c>
-      <c r="B238" s="10" t="s">
+      <c r="B238" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="C238" s="9" t="s">
+      <c r="C238" s="7" t="s">
         <v>19</v>
       </c>
       <c r="D238" s="1" t="s">
@@ -8116,14 +8195,14 @@
       <c r="I238" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J238" s="26" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="239" spans="1:10" ht="154" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A239" s="9"/>
-      <c r="B239" s="10"/>
-      <c r="C239" s="9"/>
+      <c r="J238" s="22" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="239" spans="1:10" ht="154" x14ac:dyDescent="0.2">
+      <c r="A239" s="7"/>
+      <c r="B239" s="8"/>
+      <c r="C239" s="7"/>
       <c r="D239" s="1" t="s">
         <v>11</v>
       </c>
@@ -8140,14 +8219,14 @@
       <c r="I239" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J239" s="26" t="s">
+      <c r="J239" s="22" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="240" spans="1:10" ht="56" x14ac:dyDescent="0.2">
-      <c r="A240" s="9"/>
-      <c r="B240" s="10"/>
-      <c r="C240" s="9"/>
+      <c r="A240" s="7"/>
+      <c r="B240" s="8"/>
+      <c r="C240" s="7"/>
       <c r="D240" s="1" t="s">
         <v>11</v>
       </c>
@@ -8164,14 +8243,14 @@
         <v>14</v>
       </c>
       <c r="I240" s="1"/>
-      <c r="J240" s="26" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="241" spans="1:10" ht="56" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A241" s="9"/>
-      <c r="B241" s="10"/>
-      <c r="C241" s="9"/>
+      <c r="J240" s="22" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="241" spans="1:10" ht="56" x14ac:dyDescent="0.2">
+      <c r="A241" s="7"/>
+      <c r="B241" s="8"/>
+      <c r="C241" s="7"/>
       <c r="D241" s="1" t="s">
         <v>11</v>
       </c>
@@ -8188,18 +8267,18 @@
       <c r="I241" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J241" s="26" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="242" spans="1:10" ht="56" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A242" s="11">
+      <c r="J241" s="22" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="242" spans="1:10" ht="56" x14ac:dyDescent="0.2">
+      <c r="A242" s="9">
         <v>2018</v>
       </c>
-      <c r="B242" s="24" t="s">
+      <c r="B242" s="20" t="s">
         <v>268</v>
       </c>
-      <c r="C242" s="11" t="s">
+      <c r="C242" s="9" t="s">
         <v>25</v>
       </c>
       <c r="D242" s="1" t="s">
@@ -8218,14 +8297,14 @@
       <c r="I242" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J242" s="26" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="243" spans="1:10" ht="56" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A243" s="32"/>
-      <c r="B243" s="33"/>
-      <c r="C243" s="32"/>
+      <c r="J242" s="22" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="243" spans="1:10" ht="56" x14ac:dyDescent="0.2">
+      <c r="A243" s="26"/>
+      <c r="B243" s="27"/>
+      <c r="C243" s="26"/>
       <c r="D243" s="1" t="s">
         <v>20</v>
       </c>
@@ -8242,14 +8321,14 @@
       <c r="I243" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J243" s="26" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="244" spans="1:10" ht="56" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A244" s="12"/>
-      <c r="B244" s="25"/>
-      <c r="C244" s="12"/>
+      <c r="J243" s="22" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="244" spans="1:10" ht="56" x14ac:dyDescent="0.2">
+      <c r="A244" s="10"/>
+      <c r="B244" s="21"/>
+      <c r="C244" s="10"/>
       <c r="D244" s="1" t="s">
         <v>11</v>
       </c>
@@ -8266,11 +8345,11 @@
       <c r="I244" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J244" s="26" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="245" spans="1:10" ht="252" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J244" s="22" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="245" spans="1:10" ht="252" x14ac:dyDescent="0.2">
       <c r="A245" s="1">
         <v>2018</v>
       </c>
@@ -8296,11 +8375,11 @@
         <v>14</v>
       </c>
       <c r="I245" s="1"/>
-      <c r="J245" s="26" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="246" spans="1:10" ht="141" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J245" s="22" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="246" spans="1:10" ht="141" x14ac:dyDescent="0.2">
       <c r="A246" s="1">
         <v>2018</v>
       </c>
@@ -8316,28 +8395,28 @@
       <c r="E246" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F246" s="31" t="s">
+      <c r="F246" s="25" t="s">
         <v>283</v>
       </c>
-      <c r="G246" s="31" t="s">
+      <c r="G246" s="25" t="s">
         <v>309</v>
       </c>
       <c r="H246" s="1"/>
       <c r="I246" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J246" s="26" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="247" spans="1:10" ht="56" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A247" s="9">
+      <c r="J246" s="22" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="247" spans="1:10" ht="56" x14ac:dyDescent="0.2">
+      <c r="A247" s="7">
         <v>2018</v>
       </c>
-      <c r="B247" s="10" t="s">
+      <c r="B247" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="C247" s="9" t="s">
+      <c r="C247" s="7" t="s">
         <v>52</v>
       </c>
       <c r="D247" s="1" t="s">
@@ -8356,14 +8435,14 @@
         <v>14</v>
       </c>
       <c r="I247" s="1"/>
-      <c r="J247" s="26" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="248" spans="1:10" ht="56" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A248" s="9"/>
-      <c r="B248" s="10"/>
-      <c r="C248" s="9"/>
+      <c r="J247" s="22" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="248" spans="1:10" ht="56" x14ac:dyDescent="0.2">
+      <c r="A248" s="7"/>
+      <c r="B248" s="8"/>
+      <c r="C248" s="7"/>
       <c r="D248" s="1" t="s">
         <v>20</v>
       </c>
@@ -8380,14 +8459,14 @@
         <v>14</v>
       </c>
       <c r="I248" s="1"/>
-      <c r="J248" s="26" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="249" spans="1:10" ht="154" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A249" s="9"/>
-      <c r="B249" s="10"/>
-      <c r="C249" s="9"/>
+      <c r="J248" s="22" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="249" spans="1:10" ht="154" x14ac:dyDescent="0.2">
+      <c r="A249" s="7"/>
+      <c r="B249" s="8"/>
+      <c r="C249" s="7"/>
       <c r="D249" s="1" t="s">
         <v>11</v>
       </c>
@@ -8404,14 +8483,14 @@
         <v>14</v>
       </c>
       <c r="I249" s="1"/>
-      <c r="J249" s="26" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="250" spans="1:10" ht="154" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A250" s="9"/>
-      <c r="B250" s="10"/>
-      <c r="C250" s="9"/>
+      <c r="J249" s="22" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="250" spans="1:10" ht="154" x14ac:dyDescent="0.2">
+      <c r="A250" s="7"/>
+      <c r="B250" s="8"/>
+      <c r="C250" s="7"/>
       <c r="D250" s="1" t="s">
         <v>11</v>
       </c>
@@ -8428,18 +8507,18 @@
       <c r="I250" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J250" s="26" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="251" spans="1:10" ht="98" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A251" s="11">
+      <c r="J250" s="22" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="251" spans="1:10" ht="98" x14ac:dyDescent="0.2">
+      <c r="A251" s="9">
         <v>2018</v>
       </c>
-      <c r="B251" s="24" t="s">
+      <c r="B251" s="20" t="s">
         <v>268</v>
       </c>
-      <c r="C251" s="11" t="s">
+      <c r="C251" s="9" t="s">
         <v>37</v>
       </c>
       <c r="D251" s="1" t="s">
@@ -8458,14 +8537,14 @@
       <c r="I251" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J251" s="26" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="252" spans="1:10" ht="56" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A252" s="32"/>
-      <c r="B252" s="33"/>
-      <c r="C252" s="32"/>
+      <c r="J251" s="22" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="252" spans="1:10" ht="56" x14ac:dyDescent="0.2">
+      <c r="A252" s="26"/>
+      <c r="B252" s="27"/>
+      <c r="C252" s="26"/>
       <c r="D252" s="1" t="s">
         <v>11</v>
       </c>
@@ -8482,14 +8561,14 @@
         <v>14</v>
       </c>
       <c r="I252" s="1"/>
-      <c r="J252" s="26" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="253" spans="1:10" ht="238" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A253" s="32"/>
-      <c r="B253" s="33"/>
-      <c r="C253" s="32"/>
+      <c r="J252" s="22" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="253" spans="1:10" ht="238" x14ac:dyDescent="0.2">
+      <c r="A253" s="26"/>
+      <c r="B253" s="27"/>
+      <c r="C253" s="26"/>
       <c r="D253" s="1" t="s">
         <v>11</v>
       </c>
@@ -8506,14 +8585,14 @@
         <v>14</v>
       </c>
       <c r="I253" s="1"/>
-      <c r="J253" s="26" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="254" spans="1:10" ht="168" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A254" s="32"/>
-      <c r="B254" s="33"/>
-      <c r="C254" s="32"/>
+      <c r="J253" s="22" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="254" spans="1:10" ht="168" x14ac:dyDescent="0.2">
+      <c r="A254" s="26"/>
+      <c r="B254" s="27"/>
+      <c r="C254" s="26"/>
       <c r="D254" s="1" t="s">
         <v>11</v>
       </c>
@@ -8530,14 +8609,14 @@
       <c r="I254" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J254" s="26" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="255" spans="1:10" ht="56" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A255" s="32"/>
-      <c r="B255" s="33"/>
-      <c r="C255" s="32"/>
+      <c r="J254" s="22" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="255" spans="1:10" ht="56" x14ac:dyDescent="0.2">
+      <c r="A255" s="26"/>
+      <c r="B255" s="27"/>
+      <c r="C255" s="26"/>
       <c r="D255" s="1" t="s">
         <v>11</v>
       </c>
@@ -8554,14 +8633,14 @@
         <v>14</v>
       </c>
       <c r="I255" s="1"/>
-      <c r="J255" s="26" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="256" spans="1:10" ht="112" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A256" s="32"/>
-      <c r="B256" s="33"/>
-      <c r="C256" s="32"/>
+      <c r="J255" s="22" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="256" spans="1:10" ht="112" x14ac:dyDescent="0.2">
+      <c r="A256" s="26"/>
+      <c r="B256" s="27"/>
+      <c r="C256" s="26"/>
       <c r="D256" s="1" t="s">
         <v>11</v>
       </c>
@@ -8578,14 +8657,14 @@
         <v>14</v>
       </c>
       <c r="I256" s="1"/>
-      <c r="J256" s="26" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="257" spans="1:10" ht="56" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A257" s="32"/>
-      <c r="B257" s="33"/>
-      <c r="C257" s="32"/>
+      <c r="J256" s="22" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="257" spans="1:10" ht="56" x14ac:dyDescent="0.2">
+      <c r="A257" s="26"/>
+      <c r="B257" s="27"/>
+      <c r="C257" s="26"/>
       <c r="D257" s="1" t="s">
         <v>11</v>
       </c>
@@ -8602,14 +8681,14 @@
       <c r="I257" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J257" s="26" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="258" spans="1:10" ht="98" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A258" s="32"/>
-      <c r="B258" s="33"/>
-      <c r="C258" s="32"/>
+      <c r="J257" s="22" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="258" spans="1:10" ht="98" x14ac:dyDescent="0.2">
+      <c r="A258" s="26"/>
+      <c r="B258" s="27"/>
+      <c r="C258" s="26"/>
       <c r="D258" s="1" t="s">
         <v>11</v>
       </c>
@@ -8626,14 +8705,14 @@
         <v>14</v>
       </c>
       <c r="I258" s="1"/>
-      <c r="J258" s="26" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="259" spans="1:10" ht="84" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A259" s="12"/>
-      <c r="B259" s="25"/>
-      <c r="C259" s="12"/>
+      <c r="J258" s="22" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="259" spans="1:10" ht="84" x14ac:dyDescent="0.2">
+      <c r="A259" s="10"/>
+      <c r="B259" s="21"/>
+      <c r="C259" s="10"/>
       <c r="D259" s="1" t="s">
         <v>11</v>
       </c>
@@ -8650,11 +8729,11 @@
         <v>14</v>
       </c>
       <c r="I259" s="1"/>
-      <c r="J259" s="26" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="260" spans="1:10" ht="112" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J259" s="22" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="260" spans="1:10" ht="112" x14ac:dyDescent="0.2">
       <c r="A260" s="1">
         <v>2018</v>
       </c>
@@ -8680,18 +8759,18 @@
         <v>14</v>
       </c>
       <c r="I260" s="1"/>
-      <c r="J260" s="26" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="261" spans="1:10" ht="56" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A261" s="9">
+      <c r="J260" s="22" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="261" spans="1:10" ht="56" x14ac:dyDescent="0.2">
+      <c r="A261" s="7">
         <v>2018</v>
       </c>
-      <c r="B261" s="10" t="s">
+      <c r="B261" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="C261" s="9" t="s">
+      <c r="C261" s="7" t="s">
         <v>45</v>
       </c>
       <c r="D261" s="1" t="s">
@@ -8710,14 +8789,14 @@
       <c r="I261" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J261" s="26" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="262" spans="1:10" ht="196" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A262" s="9"/>
-      <c r="B262" s="10"/>
-      <c r="C262" s="9"/>
+      <c r="J261" s="22" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="262" spans="1:10" ht="196" x14ac:dyDescent="0.2">
+      <c r="A262" s="7"/>
+      <c r="B262" s="8"/>
+      <c r="C262" s="7"/>
       <c r="D262" s="1" t="s">
         <v>11</v>
       </c>
@@ -8734,11 +8813,11 @@
         <v>14</v>
       </c>
       <c r="I262" s="1"/>
-      <c r="J262" s="26" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="263" spans="1:10" ht="112" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J262" s="22" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="263" spans="1:10" ht="112" x14ac:dyDescent="0.2">
       <c r="A263" s="1">
         <v>2018</v>
       </c>
@@ -8764,11 +8843,11 @@
       <c r="I263" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J263" s="26" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="264" spans="1:10" ht="56" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J263" s="22" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="264" spans="1:10" ht="56" x14ac:dyDescent="0.2">
       <c r="A264" s="1">
         <v>2018</v>
       </c>
@@ -8794,11 +8873,11 @@
         <v>14</v>
       </c>
       <c r="I264" s="1"/>
-      <c r="J264" s="26" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="265" spans="1:10" ht="154" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J264" s="22" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="265" spans="1:10" ht="165" x14ac:dyDescent="0.2">
       <c r="A265" s="1">
         <v>2018</v>
       </c>
@@ -8824,26 +8903,1534 @@
         <v>299</v>
       </c>
       <c r="I265" s="1"/>
-      <c r="J265" s="26" t="s">
-        <v>300</v>
+      <c r="J265" s="22" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="266" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A266" s="35">
+        <v>2018</v>
+      </c>
+      <c r="B266" t="s">
+        <v>268</v>
+      </c>
+      <c r="C266" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="D266" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="E266">
+        <v>7</v>
+      </c>
+      <c r="F266" s="36" t="s">
+        <v>311</v>
+      </c>
+      <c r="G266" s="37" t="s">
+        <v>309</v>
+      </c>
+      <c r="J266" s="22" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="267" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A267" s="35">
+        <v>2018</v>
+      </c>
+      <c r="B267" t="s">
+        <v>268</v>
+      </c>
+      <c r="C267" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="D267" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="E267">
+        <v>11</v>
+      </c>
+      <c r="F267" s="36" t="s">
+        <v>312</v>
+      </c>
+      <c r="G267" s="37" t="s">
+        <v>309</v>
+      </c>
+      <c r="J267" s="22" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="268" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A268" s="35">
+        <v>2018</v>
+      </c>
+      <c r="B268" t="s">
+        <v>268</v>
+      </c>
+      <c r="C268" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="D268" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="E268">
+        <v>12</v>
+      </c>
+      <c r="F268" s="36" t="s">
+        <v>313</v>
+      </c>
+      <c r="G268" s="37" t="s">
+        <v>309</v>
+      </c>
+      <c r="J268" s="22" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="269" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A269" s="35">
+        <v>2018</v>
+      </c>
+      <c r="B269" t="s">
+        <v>268</v>
+      </c>
+      <c r="C269" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="D269" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="E269">
+        <v>9</v>
+      </c>
+      <c r="F269" s="36" t="s">
+        <v>314</v>
+      </c>
+      <c r="G269" s="37" t="s">
+        <v>305</v>
+      </c>
+      <c r="J269" s="22" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="270" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A270" s="35">
+        <v>2018</v>
+      </c>
+      <c r="B270" t="s">
+        <v>268</v>
+      </c>
+      <c r="C270" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="D270" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="E270">
+        <v>10</v>
+      </c>
+      <c r="F270" s="36" t="s">
+        <v>315</v>
+      </c>
+      <c r="G270" s="37" t="s">
+        <v>309</v>
+      </c>
+      <c r="J270" s="22" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="271" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A271" s="35">
+        <v>2018</v>
+      </c>
+      <c r="B271" t="s">
+        <v>268</v>
+      </c>
+      <c r="C271" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="D271" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="E271">
+        <v>10</v>
+      </c>
+      <c r="F271" s="36" t="s">
+        <v>314</v>
+      </c>
+      <c r="G271" s="37" t="s">
+        <v>305</v>
+      </c>
+      <c r="J271" s="22" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="272" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+      <c r="A272" s="35">
+        <v>2017</v>
+      </c>
+      <c r="B272" t="s">
+        <v>119</v>
+      </c>
+      <c r="C272" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="D272" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="E272">
+        <v>11</v>
+      </c>
+      <c r="F272" s="38" t="s">
+        <v>316</v>
+      </c>
+      <c r="G272" s="37" t="s">
+        <v>305</v>
+      </c>
+      <c r="J272" s="22" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="273" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A273" s="35">
+        <v>2017</v>
+      </c>
+      <c r="B273" t="s">
+        <v>119</v>
+      </c>
+      <c r="C273" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="D273" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="E273">
+        <v>9</v>
+      </c>
+      <c r="F273" s="36" t="s">
+        <v>315</v>
+      </c>
+      <c r="G273" s="37" t="s">
+        <v>309</v>
+      </c>
+      <c r="J273" s="22" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="274" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+      <c r="A274" s="35">
+        <v>2017</v>
+      </c>
+      <c r="B274" t="s">
+        <v>119</v>
+      </c>
+      <c r="C274" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="D274" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="E274">
+        <v>11</v>
+      </c>
+      <c r="F274" s="38" t="s">
+        <v>317</v>
+      </c>
+      <c r="G274" s="37" t="s">
+        <v>309</v>
+      </c>
+      <c r="J274" s="22" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="275" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+      <c r="A275" s="35">
+        <v>2017</v>
+      </c>
+      <c r="B275" t="s">
+        <v>119</v>
+      </c>
+      <c r="C275" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="D275" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="E275">
+        <v>8</v>
+      </c>
+      <c r="F275" s="38" t="s">
+        <v>311</v>
+      </c>
+      <c r="G275" s="37" t="s">
+        <v>309</v>
+      </c>
+      <c r="J275" s="22" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="276" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="A276" s="35">
+        <v>2017</v>
+      </c>
+      <c r="B276" t="s">
+        <v>119</v>
+      </c>
+      <c r="C276" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="D276" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="E276">
+        <v>11</v>
+      </c>
+      <c r="F276" s="38" t="s">
+        <v>312</v>
+      </c>
+      <c r="G276" s="37" t="s">
+        <v>309</v>
+      </c>
+      <c r="J276" s="22" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="277" spans="1:10" ht="96" x14ac:dyDescent="0.2">
+      <c r="A277" s="35">
+        <v>2017</v>
+      </c>
+      <c r="B277" t="s">
+        <v>119</v>
+      </c>
+      <c r="C277" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="D277" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="E277">
+        <v>10</v>
+      </c>
+      <c r="F277" s="38" t="s">
+        <v>318</v>
+      </c>
+      <c r="G277" s="37" t="s">
+        <v>309</v>
+      </c>
+      <c r="J277" s="22" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="278" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="A278" s="35">
+        <v>2017</v>
+      </c>
+      <c r="B278" t="s">
+        <v>119</v>
+      </c>
+      <c r="C278" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="D278" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="E278">
+        <v>10</v>
+      </c>
+      <c r="F278" s="38" t="s">
+        <v>315</v>
+      </c>
+      <c r="G278" s="37" t="s">
+        <v>309</v>
+      </c>
+      <c r="J278" s="22" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="279" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="A279" s="35">
+        <v>2017</v>
+      </c>
+      <c r="B279" t="s">
+        <v>119</v>
+      </c>
+      <c r="C279" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="D279" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="E279">
+        <v>11</v>
+      </c>
+      <c r="F279" s="38" t="s">
+        <v>312</v>
+      </c>
+      <c r="G279" s="37" t="s">
+        <v>309</v>
+      </c>
+      <c r="J279" s="22" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="280" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+      <c r="A280" s="35">
+        <v>2017</v>
+      </c>
+      <c r="B280" t="s">
+        <v>119</v>
+      </c>
+      <c r="C280" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="D280" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="E280">
+        <v>9</v>
+      </c>
+      <c r="F280" s="38" t="s">
+        <v>311</v>
+      </c>
+      <c r="G280" s="37" t="s">
+        <v>309</v>
+      </c>
+      <c r="J280" s="22" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="281" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+      <c r="A281" s="35">
+        <v>2017</v>
+      </c>
+      <c r="B281" t="s">
+        <v>119</v>
+      </c>
+      <c r="C281" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="D281" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="E281">
+        <v>10</v>
+      </c>
+      <c r="F281" s="38" t="s">
+        <v>319</v>
+      </c>
+      <c r="G281" s="37" t="s">
+        <v>309</v>
+      </c>
+      <c r="J281" s="22" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="282" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A282" s="35">
+        <v>2017</v>
+      </c>
+      <c r="B282" t="s">
+        <v>119</v>
+      </c>
+      <c r="C282" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="D282" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="E282">
+        <v>7</v>
+      </c>
+      <c r="F282" s="36" t="s">
+        <v>320</v>
+      </c>
+      <c r="G282" s="37" t="s">
+        <v>309</v>
+      </c>
+      <c r="J282" s="22" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="283" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A283" s="35">
+        <v>2017</v>
+      </c>
+      <c r="B283" t="s">
+        <v>119</v>
+      </c>
+      <c r="C283" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="D283" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="E283">
+        <v>7</v>
+      </c>
+      <c r="F283" s="36" t="s">
+        <v>311</v>
+      </c>
+      <c r="G283" s="37" t="s">
+        <v>309</v>
+      </c>
+      <c r="J283" s="22" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="284" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+      <c r="A284" s="35">
+        <v>2017</v>
+      </c>
+      <c r="B284" t="s">
+        <v>119</v>
+      </c>
+      <c r="C284" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="D284" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="E284">
+        <v>8</v>
+      </c>
+      <c r="F284" s="38" t="s">
+        <v>311</v>
+      </c>
+      <c r="G284" s="37" t="s">
+        <v>309</v>
+      </c>
+      <c r="J284" s="22" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="285" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="A285" s="35">
+        <v>2016</v>
+      </c>
+      <c r="C285" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="D285" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="E285">
+        <v>10</v>
+      </c>
+      <c r="F285" s="38" t="s">
+        <v>312</v>
+      </c>
+      <c r="G285" s="37" t="s">
+        <v>309</v>
+      </c>
+      <c r="J285" s="22" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="286" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="A286" s="35">
+        <v>2016</v>
+      </c>
+      <c r="C286" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="D286" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="E286">
+        <v>10</v>
+      </c>
+      <c r="F286" s="38" t="s">
+        <v>315</v>
+      </c>
+      <c r="G286" s="37" t="s">
+        <v>309</v>
+      </c>
+      <c r="J286" s="22" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="287" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="A287" s="35">
+        <v>2016</v>
+      </c>
+      <c r="C287" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="D287" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="E287">
+        <v>10</v>
+      </c>
+      <c r="F287" s="38" t="s">
+        <v>315</v>
+      </c>
+      <c r="G287" s="37" t="s">
+        <v>309</v>
+      </c>
+      <c r="J287" s="22" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="288" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+      <c r="A288" s="35">
+        <v>2014</v>
+      </c>
+      <c r="C288" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="D288" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="E288">
+        <v>7</v>
+      </c>
+      <c r="F288" s="38" t="s">
+        <v>311</v>
+      </c>
+      <c r="G288" s="37" t="s">
+        <v>309</v>
+      </c>
+      <c r="J288" s="22" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="289" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A289" s="35">
+        <v>2018</v>
+      </c>
+      <c r="C289" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="D289" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="E289">
+        <v>11</v>
+      </c>
+      <c r="F289" t="s">
+        <v>321</v>
+      </c>
+      <c r="G289" s="37" t="s">
+        <v>304</v>
+      </c>
+      <c r="J289" s="22" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="290" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A290" s="35">
+        <v>2018</v>
+      </c>
+      <c r="C290" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="D290" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="E290">
+        <v>8</v>
+      </c>
+      <c r="F290" t="s">
+        <v>321</v>
+      </c>
+      <c r="G290" s="37" t="s">
+        <v>304</v>
+      </c>
+      <c r="J290" s="22" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="291" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A291" s="35">
+        <v>2018</v>
+      </c>
+      <c r="C291" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="D291" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="E291">
+        <v>10</v>
+      </c>
+      <c r="F291" t="s">
+        <v>322</v>
+      </c>
+      <c r="G291" s="37" t="s">
+        <v>306</v>
+      </c>
+      <c r="J291" s="22" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="292" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A292" s="35">
+        <v>2018</v>
+      </c>
+      <c r="C292" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="D292" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="E292">
+        <v>11</v>
+      </c>
+      <c r="F292" t="s">
+        <v>323</v>
+      </c>
+      <c r="G292" s="37" t="s">
+        <v>302</v>
+      </c>
+      <c r="J292" s="22" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="293" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A293" s="35">
+        <v>2018</v>
+      </c>
+      <c r="C293" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="D293" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="E293">
+        <v>12</v>
+      </c>
+      <c r="F293" t="s">
+        <v>321</v>
+      </c>
+      <c r="G293" s="37" t="s">
+        <v>304</v>
+      </c>
+      <c r="J293" s="22" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="294" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A294" s="35">
+        <v>2018</v>
+      </c>
+      <c r="C294" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="D294" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="E294">
+        <v>10</v>
+      </c>
+      <c r="F294" t="s">
+        <v>321</v>
+      </c>
+      <c r="G294" s="37" t="s">
+        <v>304</v>
+      </c>
+      <c r="J294" s="22" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="295" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A295" s="35">
+        <v>2018</v>
+      </c>
+      <c r="C295" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="D295" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="E295">
+        <v>7</v>
+      </c>
+      <c r="F295" t="s">
+        <v>324</v>
+      </c>
+      <c r="G295" s="37" t="s">
+        <v>302</v>
+      </c>
+      <c r="J295" s="22" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="296" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A296" s="35">
+        <v>2018</v>
+      </c>
+      <c r="C296" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="D296" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="E296">
+        <v>7</v>
+      </c>
+      <c r="F296" t="s">
+        <v>325</v>
+      </c>
+      <c r="G296" s="37" t="s">
+        <v>306</v>
+      </c>
+      <c r="J296" s="22" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="297" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A297" s="35">
+        <v>2018</v>
+      </c>
+      <c r="C297" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="D297" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="E297">
+        <v>8</v>
+      </c>
+      <c r="F297" t="s">
+        <v>321</v>
+      </c>
+      <c r="G297" s="37" t="s">
+        <v>304</v>
+      </c>
+      <c r="J297" s="22" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="298" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A298" s="35">
+        <v>2018</v>
+      </c>
+      <c r="C298" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="D298" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="E298">
+        <v>11</v>
+      </c>
+      <c r="F298" t="s">
+        <v>321</v>
+      </c>
+      <c r="G298" s="37" t="s">
+        <v>304</v>
+      </c>
+      <c r="J298" s="22" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="299" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A299" s="35">
+        <v>2018</v>
+      </c>
+      <c r="C299" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="D299" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="E299">
+        <v>8</v>
+      </c>
+      <c r="F299" t="s">
+        <v>325</v>
+      </c>
+      <c r="G299" s="37" t="s">
+        <v>306</v>
+      </c>
+      <c r="J299" s="22" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="300" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A300" s="35">
+        <v>2018</v>
+      </c>
+      <c r="C300" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="D300" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="E300">
+        <v>8</v>
+      </c>
+      <c r="F300" t="s">
+        <v>302</v>
+      </c>
+      <c r="G300" s="37" t="s">
+        <v>302</v>
+      </c>
+      <c r="J300" s="22" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="301" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A301" s="35">
+        <v>2018</v>
+      </c>
+      <c r="C301" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="D301" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="E301">
+        <v>9</v>
+      </c>
+      <c r="F301" t="s">
+        <v>302</v>
+      </c>
+      <c r="G301" s="37" t="s">
+        <v>302</v>
+      </c>
+      <c r="J301" s="22" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="302" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A302" s="35">
+        <v>2018</v>
+      </c>
+      <c r="C302" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="D302" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="E302">
+        <v>11</v>
+      </c>
+      <c r="F302" t="s">
+        <v>302</v>
+      </c>
+      <c r="G302" s="37" t="s">
+        <v>302</v>
+      </c>
+      <c r="J302" s="22" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="303" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A303" s="35">
+        <v>2018</v>
+      </c>
+      <c r="C303" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="D303" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="E303">
+        <v>8</v>
+      </c>
+      <c r="F303" t="s">
+        <v>321</v>
+      </c>
+      <c r="G303" s="37" t="s">
+        <v>304</v>
+      </c>
+      <c r="J303" s="22" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="304" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A304" s="35">
+        <v>2018</v>
+      </c>
+      <c r="C304" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="D304" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="E304">
+        <v>7</v>
+      </c>
+      <c r="F304" t="s">
+        <v>326</v>
+      </c>
+      <c r="G304" s="37" t="s">
+        <v>305</v>
+      </c>
+      <c r="J304" s="22" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="305" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A305" s="35">
+        <v>2017</v>
+      </c>
+      <c r="C305" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="D305" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="E305">
+        <v>10</v>
+      </c>
+      <c r="F305" t="s">
+        <v>321</v>
+      </c>
+      <c r="G305" s="37" t="s">
+        <v>304</v>
+      </c>
+      <c r="J305" s="22" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="306" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A306" s="35">
+        <v>2017</v>
+      </c>
+      <c r="C306" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="D306" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="E306">
+        <v>11</v>
+      </c>
+      <c r="F306" t="s">
+        <v>321</v>
+      </c>
+      <c r="G306" s="37" t="s">
+        <v>304</v>
+      </c>
+      <c r="J306" s="22" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="307" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A307" s="35">
+        <v>2017</v>
+      </c>
+      <c r="C307" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="D307" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="E307">
+        <v>11</v>
+      </c>
+      <c r="F307" t="s">
+        <v>321</v>
+      </c>
+      <c r="G307" s="37" t="s">
+        <v>304</v>
+      </c>
+      <c r="J307" s="22" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="308" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A308" s="35">
+        <v>2017</v>
+      </c>
+      <c r="C308" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="D308" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="E308">
+        <v>11</v>
+      </c>
+      <c r="F308" t="s">
+        <v>321</v>
+      </c>
+      <c r="G308" s="37" t="s">
+        <v>304</v>
+      </c>
+      <c r="J308" s="22" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="309" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A309" s="35">
+        <v>2017</v>
+      </c>
+      <c r="C309" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="D309" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="E309">
+        <v>10</v>
+      </c>
+      <c r="F309" t="s">
+        <v>327</v>
+      </c>
+      <c r="G309" s="37" t="s">
+        <v>306</v>
+      </c>
+      <c r="J309" s="22" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="310" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A310" s="35">
+        <v>2017</v>
+      </c>
+      <c r="C310" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="D310" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="E310">
+        <v>7</v>
+      </c>
+      <c r="F310" t="s">
+        <v>321</v>
+      </c>
+      <c r="G310" s="37" t="s">
+        <v>304</v>
+      </c>
+      <c r="J310" s="22" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="311" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A311" s="35">
+        <v>2017</v>
+      </c>
+      <c r="C311" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="D311" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="E311">
+        <v>11</v>
+      </c>
+      <c r="F311" t="s">
+        <v>302</v>
+      </c>
+      <c r="G311" s="37" t="s">
+        <v>302</v>
+      </c>
+      <c r="J311" s="22" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="312" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A312" s="35">
+        <v>2016</v>
+      </c>
+      <c r="C312" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="D312" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="E312">
+        <v>9</v>
+      </c>
+      <c r="F312" t="s">
+        <v>302</v>
+      </c>
+      <c r="G312" s="37" t="s">
+        <v>302</v>
+      </c>
+      <c r="J312" s="22" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="313" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A313" s="35">
+        <v>2016</v>
+      </c>
+      <c r="C313" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="D313" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="E313">
+        <v>10</v>
+      </c>
+      <c r="F313" t="s">
+        <v>321</v>
+      </c>
+      <c r="G313" s="37" t="s">
+        <v>304</v>
+      </c>
+      <c r="J313" s="22" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="314" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A314" s="35">
+        <v>2016</v>
+      </c>
+      <c r="C314" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="D314" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="E314">
+        <v>10</v>
+      </c>
+      <c r="F314" t="s">
+        <v>302</v>
+      </c>
+      <c r="G314" s="37" t="s">
+        <v>302</v>
+      </c>
+      <c r="J314" s="22" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="315" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A315" s="35">
+        <v>2016</v>
+      </c>
+      <c r="C315" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="D315" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="E315">
+        <v>7</v>
+      </c>
+      <c r="J315" s="22" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="316" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A316" s="35">
+        <v>2016</v>
+      </c>
+      <c r="C316" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="D316" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="E316">
+        <v>8</v>
+      </c>
+      <c r="F316" t="s">
+        <v>328</v>
+      </c>
+      <c r="G316" s="39" t="s">
+        <v>305</v>
+      </c>
+      <c r="J316" s="22" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="317" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A317" s="35">
+        <v>2016</v>
+      </c>
+      <c r="C317" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="D317" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="E317">
+        <v>7</v>
+      </c>
+      <c r="F317" t="s">
+        <v>329</v>
+      </c>
+      <c r="G317" s="39" t="s">
+        <v>302</v>
+      </c>
+      <c r="J317" s="22" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="318" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A318" s="35">
+        <v>2016</v>
+      </c>
+      <c r="C318" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="D318" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="E318">
+        <v>7</v>
+      </c>
+      <c r="F318" t="s">
+        <v>329</v>
+      </c>
+      <c r="G318" s="39" t="s">
+        <v>302</v>
+      </c>
+      <c r="J318" s="22" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="319" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A319" s="35">
+        <v>2016</v>
+      </c>
+      <c r="C319" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="D319" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="E319">
+        <v>10</v>
+      </c>
+      <c r="F319" t="s">
+        <v>321</v>
+      </c>
+      <c r="G319" s="39" t="s">
+        <v>304</v>
+      </c>
+      <c r="J319" s="22" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="320" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A320" s="35">
+        <v>2016</v>
+      </c>
+      <c r="C320" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="D320" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="E320">
+        <v>10</v>
+      </c>
+      <c r="F320" t="s">
+        <v>321</v>
+      </c>
+      <c r="G320" s="39" t="s">
+        <v>304</v>
+      </c>
+      <c r="J320" s="22" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="321" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A321" s="35">
+        <v>2016</v>
+      </c>
+      <c r="C321" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="D321" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="E321">
+        <v>10</v>
+      </c>
+      <c r="F321" t="s">
+        <v>330</v>
+      </c>
+      <c r="G321" s="39" t="s">
+        <v>306</v>
+      </c>
+      <c r="J321" s="22" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="322" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A322" s="35">
+        <v>2015</v>
+      </c>
+      <c r="C322" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="D322" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="E322">
+        <v>7</v>
+      </c>
+      <c r="F322" s="38" t="s">
+        <v>302</v>
+      </c>
+      <c r="G322" s="39" t="s">
+        <v>302</v>
+      </c>
+      <c r="J322" s="22" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="323" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+      <c r="A323" s="35">
+        <v>2015</v>
+      </c>
+      <c r="C323" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="D323" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="E323">
+        <v>7</v>
+      </c>
+      <c r="F323" s="38" t="s">
+        <v>329</v>
+      </c>
+      <c r="G323" s="39" t="s">
+        <v>302</v>
+      </c>
+      <c r="J323" s="22" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="324" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A324" s="35">
+        <v>2015</v>
+      </c>
+      <c r="C324" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="D324" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="E324">
+        <v>7</v>
+      </c>
+      <c r="F324" s="38" t="s">
+        <v>326</v>
+      </c>
+      <c r="G324" s="39" t="s">
+        <v>305</v>
+      </c>
+      <c r="J324" s="22" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="325" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A325" s="35">
+        <v>2015</v>
+      </c>
+      <c r="C325" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="D325" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="E325">
+        <v>7</v>
+      </c>
+      <c r="F325" s="38" t="s">
+        <v>302</v>
+      </c>
+      <c r="G325" s="39" t="s">
+        <v>302</v>
+      </c>
+      <c r="J325" s="22" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="326" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A326" s="35">
+        <v>2015</v>
+      </c>
+      <c r="C326" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="D326" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="E326">
+        <v>9</v>
+      </c>
+      <c r="F326" s="38" t="s">
+        <v>326</v>
+      </c>
+      <c r="G326" s="39" t="s">
+        <v>305</v>
+      </c>
+      <c r="J326" s="22" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="327" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="A327" s="35">
+        <v>2015</v>
+      </c>
+      <c r="C327" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="D327" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="E327">
+        <v>8</v>
+      </c>
+      <c r="F327" s="38" t="s">
+        <v>321</v>
+      </c>
+      <c r="G327" s="39" t="s">
+        <v>304</v>
+      </c>
+      <c r="J327" s="22" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="328" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="A328" s="35">
+        <v>2015</v>
+      </c>
+      <c r="C328" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="D328" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="E328">
+        <v>8</v>
+      </c>
+      <c r="F328" s="38" t="s">
+        <v>321</v>
+      </c>
+      <c r="G328" s="39" t="s">
+        <v>304</v>
+      </c>
+      <c r="J328" s="22" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="329" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="A329" s="35">
+        <v>2014</v>
+      </c>
+      <c r="C329" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="D329" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="E329">
+        <v>7</v>
+      </c>
+      <c r="F329" s="38" t="s">
+        <v>321</v>
+      </c>
+      <c r="G329" s="39" t="s">
+        <v>304</v>
+      </c>
+      <c r="J329" s="22" t="s">
+        <v>145</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J265" xr:uid="{C72AA66F-8DA5-A443-9F5C-79BE321723A5}">
-    <filterColumn colId="0">
-      <filters blank="1"/>
-    </filterColumn>
-    <filterColumn colId="6">
-      <filters>
-        <filter val="Behavior"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="9">
-      <filters>
-        <filter val="Termination"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <mergeCells count="3">
     <mergeCell ref="A147:A149"/>
     <mergeCell ref="B147:B149"/>
